--- a/inst/extdata/preproc.xlsx
+++ b/inst/extdata/preproc.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyR\Packages\flrpkgPreproc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58878B-6E9E-4EF5-8D2A-B091AB1366CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B0130-B4F8-4A17-AED7-A8EDEFAE9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5797C449-39AA-4F4E-B9E8-85AE9EADE789}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5797C449-39AA-4F4E-B9E8-85AE9EADE789}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ddict" sheetId="7" r:id="rId2"/>
-    <sheet name="cols" sheetId="8" r:id="rId3"/>
-    <sheet name="tbl_text" sheetId="3" r:id="rId4"/>
-    <sheet name="tbl_err" sheetId="5" r:id="rId5"/>
-    <sheet name="variables" sheetId="4" r:id="rId6"/>
+    <sheet name="tbl_text" sheetId="3" r:id="rId3"/>
+    <sheet name="tbl_err" sheetId="5" r:id="rId4"/>
+    <sheet name="variables" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="date_default">variables!$B$4</definedName>
@@ -908,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1150F7-836E-4DCF-A644-F6BE05CA6878}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +927,7 @@
     <col min="28" max="29" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1016,12 +1015,8 @@
       <c r="AC1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AE1">
-        <f>COLUMN(AC1)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW() - 1</f>
         <v>1</v>
@@ -1032,7 +1027,7 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.73710025994652895</v>
+        <v>0.54552059586872126</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1, 9)</f>
@@ -1040,11 +1035,11 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1, 12), "blue", "red", "yellow", "purple", "green", "orange", "amber", "vermillon", "magenta", "violet", "teal", "chartreuse")</f>
-        <v>yellow</v>
+        <v>green</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2010, 1, 1), DATE(2040, 12, 31))</f>
-        <v>44631</v>
+        <v>47693</v>
       </c>
       <c r="G2" s="1" t="b">
         <f t="shared" ref="G2" si="0">ROW() = 3</f>
@@ -1071,11 +1066,11 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M31" ca="1" si="5">D2 + POWER(C2, 16)</f>
-        <v>4.0075932033336805</v>
+        <v>4.0000615146318239</v>
       </c>
       <c r="N2">
         <f ca="1">ROUND(M2, 6)</f>
-        <v>4.007593</v>
+        <v>4.0000619999999998</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O31" ca="1" si="6">D2 + POWER(10, -10)</f>
@@ -1083,23 +1078,23 @@
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P31" ca="1" si="7">IF(H2, NA(), ROUND(_xlfn.NORM.INV(C2, 100, 20), 2))</f>
-        <v>112.69</v>
+        <v>102.29</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q3" ca="1" si="8">IF(J2, IF(RAND() &lt; 0.5, 0, -P2), P2)</f>
-        <v>112.69</v>
+        <v>102.29</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R31" ca="1" si="9">IF(H2, NA(), ROUND(_xlfn.LOGNORM.INV(C2, 5, 1), 2))</f>
-        <v>279.89999999999998</v>
+        <v>166.39</v>
       </c>
       <c r="S2">
         <f ca="1">IF(J2, IF(RAND() &lt; 0.5, 0, -R2), R2)</f>
-        <v>279.89999999999998</v>
+        <v>166.39</v>
       </c>
       <c r="T2">
         <f ca="1">SIGN(S2) *LOG10(ABS(S2) + 1)</f>
-        <v>2.4485517392015779</v>
+        <v>2.223729509364877</v>
       </c>
       <c r="U2">
         <f ca="1">IF(J2, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D2)</f>
@@ -1110,15 +1105,15 @@
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="str">
         <f ca="1">INDEX(tbl_text[text], W2)</f>
-        <v>na</v>
+        <v>N/A</v>
       </c>
       <c r="Y2">
         <f ca="1">LEN(X2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W2)</f>
@@ -1130,14 +1125,14 @@
       </c>
       <c r="AB2" s="5">
         <f t="shared" ref="AB2:AB31" ca="1" si="11">IF(J2, IF(RAND() &lt; 0.5, NA(), date_default), F2)</f>
-        <v>44631</v>
-      </c>
-      <c r="AC2" s="5">
+        <v>47693</v>
+      </c>
+      <c r="AC2" s="5" t="e">
         <f t="shared" ref="AC2:AC31" ca="1" si="12">IF(AND(AB2 &gt;= date_start, AB2 &lt; date_end), AB2, NA())</f>
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A31" si="13">ROW() - 1</f>
         <v>2</v>
@@ -1148,19 +1143,19 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C31" ca="1" si="14">RAND()</f>
-        <v>0.95061416810594557</v>
+        <v>0.3847405947153818</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="15">RANDBETWEEN(1, 9)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E31" ca="1" si="16">CHOOSE(RANDBETWEEN(1, 12), "blue", "red", "yellow", "purple", "green", "orange", "amber", "vermillon", "magenta", "violet", "teal", "chartreuse")</f>
-        <v>purple</v>
+        <v>magenta</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F31" ca="1" si="17">RANDBETWEEN(DATE(2010, 1, 1), DATE(2040, 12, 31))</f>
-        <v>47189</v>
+        <v>42361</v>
       </c>
       <c r="G3" s="1" t="b">
         <f>ROW() = 3</f>
@@ -1176,7 +1171,7 @@
       </c>
       <c r="J3" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>5.0999999999999996</v>
@@ -1187,73 +1182,73 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>6.444701428810828</v>
+        <v>4.000000230509162</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N31" ca="1" si="18">ROUND(M3, 6)</f>
-        <v>6.4447010000000002</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="7"/>
-        <v>133.02000000000001</v>
+        <v>94.14</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="8"/>
-        <v>133.02000000000001</v>
+        <v>-94.14</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="9"/>
-        <v>773.43</v>
+        <v>110.71</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S31" ca="1" si="19">IF(J3, IF(RAND() &lt; 0.5, 0, -R3), R3)</f>
-        <v>773.43</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f ca="1">SIGN(S3) *LOG10(ABS(S3) + 1)</f>
-        <v>2.8889821683991199</v>
-      </c>
-      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="e">
         <f ca="1">IF(J3, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D3)</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
       </c>
       <c r="W3">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X3" t="str">
         <f ca="1">INDEX(tbl_text[text], W3)</f>
-        <v/>
+        <v>abc</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y31" ca="1" si="20">LEN(X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" t="e">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA3">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>47189</v>
-      </c>
-      <c r="AC3" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="AC3" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>47189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="13"/>
         <v>3</v>
@@ -1264,19 +1259,19 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.87654408409878948</v>
+        <v>0.76570641206774315</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>orange</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>49447</v>
+        <v>45283</v>
       </c>
       <c r="G4" s="1" t="b">
         <f t="shared" ref="G4:G31" si="22">ROW() = 3</f>
@@ -1303,54 +1298,54 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1214451589855965</v>
+        <v>6.0139635724480547</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="18"/>
-        <v>1.121445</v>
+        <v>6.0139639999999996</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0000000001</v>
+        <v>6.0000000001</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="7"/>
-        <v>123.16</v>
+        <v>114.5</v>
       </c>
       <c r="Q4">
         <f ca="1">IF(J4, IF(RAND() &lt; 0.5, 0, -P4), P4)</f>
-        <v>123.16</v>
+        <v>114.5</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="9"/>
-        <v>472.43</v>
+        <v>306.37</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="19"/>
-        <v>472.43</v>
+        <v>306.37</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T31" ca="1" si="23">SIGN(S4) *LOG10(ABS(S4) + 1)</f>
-        <v>2.6752557745513381</v>
+        <v>2.4876614771186447</v>
       </c>
       <c r="U4">
         <f ca="1">IF(J4, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D4)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V4" t="s">
         <v>2</v>
       </c>
       <c r="W4">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X4" t="str">
         <f ca="1">INDEX(tbl_text[text], W4)</f>
-        <v>N \ A</v>
+        <v>_NA</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W4)</f>
@@ -1362,14 +1357,14 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>49447</v>
-      </c>
-      <c r="AC4" s="5" t="e">
+        <v>45283</v>
+      </c>
+      <c r="AC4" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -1380,19 +1375,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.93797800513313356</v>
+        <v>0.65856448153388014</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>teal</v>
+        <v>chartreuse</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44819</v>
+        <v>45497</v>
       </c>
       <c r="G5" s="1" t="b">
         <f t="shared" si="22"/>
@@ -1419,54 +1414,54 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3589901016142489</v>
+        <v>8.0012519093012866</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="18"/>
-        <v>6.3589900000000004</v>
+        <v>8.0012519999999991</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="7"/>
-        <v>130.76</v>
+        <v>108.17</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q31" ca="1" si="24">IF(J5, IF(RAND() &lt; 0.5, 0, -P5), P5)</f>
-        <v>130.76</v>
+        <v>108.17</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="9"/>
-        <v>690.92</v>
+        <v>223.31</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="19"/>
-        <v>690.92</v>
+        <v>223.31</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="23"/>
-        <v>2.8400558840998138</v>
+        <v>2.3508486353663418</v>
       </c>
       <c r="U5">
         <f ca="1">IF(J5, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D5)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
       </c>
       <c r="W5">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X5" t="str">
         <f ca="1">INDEX(tbl_text[text], W5)</f>
-        <v>N \ A</v>
+        <v>na</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W5)</f>
@@ -1478,14 +1473,14 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>44819</v>
+        <v>45497</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>44819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -1496,19 +1491,19 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.23981492901547019</v>
+        <v>0.51122339193337785</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>purple</v>
+        <v>violet</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50636</v>
+        <v>45847</v>
       </c>
       <c r="G6" s="1" t="b">
         <f t="shared" si="22"/>
@@ -1520,11 +1515,11 @@
       </c>
       <c r="I6" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>5.0999999999999996</v>
@@ -1535,73 +1530,73 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000000001196794</v>
+        <v>9.0000217656419341</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>9.0000219999999995</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>9.0000000001</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="7"/>
-        <v>85.86</v>
+        <v>100.56</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="24"/>
-        <v>-85.86</v>
+        <v>100.56</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="9"/>
-        <v>73.19</v>
+        <v>152.65</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="19"/>
-        <v>-73.19</v>
+        <v>152.65</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.8703453710809597</v>
-      </c>
-      <c r="U6" t="e">
+        <v>2.186532564592397</v>
+      </c>
+      <c r="U6">
         <f ca="1">IF(J6, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D6)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="V6" t="s">
         <v>2</v>
       </c>
       <c r="W6">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" t="str">
         <f ca="1">INDEX(tbl_text[text], W6)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>ab  cd</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W6)</f>
-        <v>abc</v>
+        <v>ab cd</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="5" t="e">
+        <v>45847</v>
+      </c>
+      <c r="AC6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -1612,19 +1607,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7276059282910232E-2</v>
+        <v>0.95212766515523506</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>red</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44137</v>
+        <v>47833</v>
       </c>
       <c r="G7" s="1" t="b">
         <f t="shared" si="22"/>
@@ -1632,15 +1627,15 @@
       </c>
       <c r="H7" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>5.0999999999999996</v>
@@ -1651,54 +1646,54 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1.4561660376699379</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>1.4561660000000001</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
-      </c>
-      <c r="P7" t="e">
+        <v>1.0000000001</v>
+      </c>
+      <c r="P7">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>133.32</v>
+      </c>
+      <c r="Q7">
         <f t="shared" ca="1" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R7" t="e">
+        <v>133.32</v>
+      </c>
+      <c r="R7">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S7" t="e">
+        <v>785.13</v>
+      </c>
+      <c r="S7">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T7" t="e">
+        <v>785.13</v>
+      </c>
+      <c r="T7">
         <f t="shared" ca="1" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U7" t="e">
+        <v>2.8954943699760749</v>
+      </c>
+      <c r="U7">
         <f ca="1">IF(J7, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D7)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
         <v>2</v>
       </c>
       <c r="W7">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="str">
         <f ca="1">INDEX(tbl_text[text], W7)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>abc</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W7)</f>
@@ -1710,14 +1705,14 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>47833</v>
       </c>
       <c r="AC7" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -1728,19 +1723,19 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.75725492594976118</v>
+        <v>0.33641052066474375</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>amber</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>43082</v>
+        <v>46413</v>
       </c>
       <c r="G8" s="1" t="b">
         <f t="shared" si="22"/>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="J8" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>5.0999999999999996</v>
@@ -1767,50 +1762,50 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.011691593675121</v>
+        <v>2.0000000269099631</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="18"/>
-        <v>1.011692</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="7"/>
-        <v>113.95</v>
+        <v>91.55</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="24"/>
-        <v>113.95</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="9"/>
-        <v>298.12</v>
+        <v>97.29</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="19"/>
-        <v>298.12</v>
+        <v>-97.29</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4758454521461633</v>
-      </c>
-      <c r="U8">
+        <v>-1.9925093350677756</v>
+      </c>
+      <c r="U8" t="e">
         <f ca="1">IF(J8, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D8)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="V8" t="s">
         <v>2</v>
       </c>
       <c r="W8">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="str">
         <f ca="1">INDEX(tbl_text[text], W8)</f>
-        <v xml:space="preserve"> </v>
+        <v>.</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="20"/>
@@ -1824,16 +1819,16 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>43082</v>
-      </c>
-      <c r="AC8" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="AC8" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>43082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -1844,19 +1839,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.96386056647404117</v>
+        <v>0.92356496640494723</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>purple</v>
+        <v>magenta</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44329</v>
+        <v>40760</v>
       </c>
       <c r="G9" s="1" t="b">
         <f t="shared" si="22"/>
@@ -1883,54 +1878,54 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>9.554916200502019</v>
+        <v>6.2802071464441083</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>9.5549160000000004</v>
+        <v>6.2802069999999999</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
+        <v>6.0000000001</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="7"/>
-        <v>135.94999999999999</v>
+        <v>128.59</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="24"/>
-        <v>135.94999999999999</v>
+        <v>128.59</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="9"/>
-        <v>895.48</v>
+        <v>619.84</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="19"/>
-        <v>895.48</v>
+        <v>619.84</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="23"/>
-        <v>2.952540605123493</v>
+        <v>2.7929796902405353</v>
       </c>
       <c r="U9">
         <f ca="1">IF(J9, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D9)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>7</v>
-      </c>
-      <c r="X9" t="e">
+        <v>4</v>
+      </c>
+      <c r="X9" t="str">
         <f ca="1">INDEX(tbl_text[text], W9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" t="e">
+        <v/>
+      </c>
+      <c r="Y9">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W9)</f>
@@ -1942,14 +1937,14 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>44329</v>
+        <v>40760</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>44329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>40760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -1960,19 +1955,19 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.14193377694165998</v>
+        <v>0.48139140864888197</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>chartreuse</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>48018</v>
+        <v>40728</v>
       </c>
       <c r="G10" s="1" t="b">
         <f t="shared" si="22"/>
@@ -1984,7 +1979,7 @@
       </c>
       <c r="I10" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -1999,62 +1994,62 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0000000000000271</v>
+        <v>2.0000083171275742</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>2.0000079999999998</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="7"/>
-        <v>78.569999999999993</v>
+        <v>99.07</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="24"/>
-        <v>-78.569999999999993</v>
+        <v>-99.07</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="9"/>
-        <v>50.82</v>
+        <v>141.65</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="19"/>
-        <v>-50.82</v>
+        <v>-141.65</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.7144974086498059</v>
+        <v>-2.1542717759930952</v>
       </c>
       <c r="U10" t="e">
         <f ca="1">IF(J10, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D10)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
       </c>
       <c r="W10">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X10" t="str">
         <f ca="1">INDEX(tbl_text[text], W10)</f>
-        <v>abc</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z10" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W10)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA10">
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -2065,7 +2060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -2076,19 +2071,19 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60508236672764204</v>
+        <v>0.75258120378286464</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>violet</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>41256</v>
+        <v>44008</v>
       </c>
       <c r="G11" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2115,73 +2110,73 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>9.000322873165004</v>
+        <v>4.0105889738843361</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0003229999999999</v>
+        <v>4.0105890000000004</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="7"/>
-        <v>105.33</v>
+        <v>113.65</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="24"/>
-        <v>105.33</v>
+        <v>113.65</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="9"/>
-        <v>193.74</v>
+        <v>293.72000000000003</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="19"/>
-        <v>193.74</v>
+        <v>293.72000000000003</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="23"/>
-        <v>2.2894551656702844</v>
+        <v>2.469409608516755</v>
       </c>
       <c r="U11">
         <f ca="1">IF(J11, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D11)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V11" t="s">
         <v>2</v>
       </c>
       <c r="W11">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X11" t="str">
         <f ca="1">INDEX(tbl_text[text], W11)</f>
-        <v>ab  cd</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W11)</f>
-        <v>ab cd</v>
+        <v>abc</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>41256</v>
+        <v>44008</v>
       </c>
       <c r="AC11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>41256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -2192,19 +2187,19 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48363995701332141</v>
+        <v>0.8364143747465812</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>vermillon</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50888</v>
+        <v>40989</v>
       </c>
       <c r="G12" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2220,7 +2215,7 @@
       </c>
       <c r="J12" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>5.0999999999999996</v>
@@ -2231,54 +2226,54 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000089609650264</v>
+        <v>5.0573777889857565</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0000089999999999</v>
+        <v>5.0573779999999999</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="7"/>
-        <v>99.18</v>
+        <v>119.6</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="24"/>
-        <v>-99.18</v>
+        <v>119.6</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="9"/>
-        <v>142.44999999999999</v>
+        <v>395.37</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>395.37</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U12" t="e">
+        <v>2.5981007766722173</v>
+      </c>
+      <c r="U12">
         <f ca="1">IF(J12, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D12)</f>
-        <v>#REF!</v>
+        <v>5</v>
       </c>
       <c r="V12" t="s">
         <v>2</v>
       </c>
       <c r="W12">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>7</v>
-      </c>
-      <c r="X12" t="e">
+        <v>6</v>
+      </c>
+      <c r="X12" t="str">
         <f ca="1">INDEX(tbl_text[text], W12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" t="e">
+        <v>.</v>
+      </c>
+      <c r="Y12">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W12)</f>
@@ -2288,16 +2283,16 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB12" s="5" t="e">
+      <c r="AB12" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC12" s="5" t="e">
+        <v>40989</v>
+      </c>
+      <c r="AC12" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>40989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -2308,19 +2303,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.12798110014145903</v>
+        <v>0.90619666045744462</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>blue</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46213</v>
+        <v>49844</v>
       </c>
       <c r="G13" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2332,11 +2327,11 @@
       </c>
       <c r="I13" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>5.0999999999999996</v>
@@ -2347,39 +2342,39 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000000000053</v>
+        <v>7.2068041825311164</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>7.206804</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>7.0000000001</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="7"/>
-        <v>77.28</v>
+        <v>126.35</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="24"/>
-        <v>-77.28</v>
+        <v>126.35</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="9"/>
-        <v>47.66</v>
+        <v>554.29</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="19"/>
-        <v>-47.66</v>
+        <v>554.29</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.6871721045947996</v>
-      </c>
-      <c r="U13" t="e">
+        <v>2.7445198525038577</v>
+      </c>
+      <c r="U13">
         <f ca="1">IF(J13, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D13)</f>
-        <v>#REF!</v>
+        <v>7</v>
       </c>
       <c r="V13" t="s">
         <v>2</v>
@@ -2406,14 +2401,14 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>49844</v>
       </c>
       <c r="AC13" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="13"/>
         <v>13</v>
@@ -2424,19 +2419,19 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.13763355845284375</v>
+        <v>0.18383933787732243</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>green</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50468</v>
+        <v>48141</v>
       </c>
       <c r="G14" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2463,35 +2458,35 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0000000000000169</v>
+        <v>5.0000000000017026</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="7"/>
-        <v>78.180000000000007</v>
+        <v>81.98</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-81.98</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="9"/>
-        <v>49.85</v>
+        <v>60.29</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="19"/>
-        <v>-49.85</v>
+        <v>-60.29</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.7062909572587635</v>
+        <v>-1.7873896213521101</v>
       </c>
       <c r="U14" t="e">
         <f ca="1">IF(J14, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D14)</f>
@@ -2502,11 +2497,11 @@
       </c>
       <c r="W14">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X14" t="str">
         <f ca="1">INDEX(tbl_text[text], W14)</f>
-        <v>N/A</v>
+        <v>_NA</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="20"/>
@@ -2529,7 +2524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -2540,19 +2535,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.36295875169543002</v>
+        <v>0.10609559841606353</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>yellow</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47924</v>
+        <v>46059</v>
       </c>
       <c r="G15" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2564,7 +2559,7 @@
       </c>
       <c r="I15" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -2579,19 +2574,19 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000000907227822</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>9.0000000001</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="7"/>
-        <v>92.99</v>
+        <v>75.05</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="24"/>
@@ -2599,7 +2594,7 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="9"/>
-        <v>104.53</v>
+        <v>42.62</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="19"/>
@@ -2611,22 +2606,22 @@
       </c>
       <c r="U15" t="e">
         <f ca="1">IF(J15, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D15)</f>
-        <v>#NUM!</v>
+        <v>#REF!</v>
       </c>
       <c r="V15" t="s">
         <v>2</v>
       </c>
       <c r="W15">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X15" t="str">
         <f ca="1">INDEX(tbl_text[text], W15)</f>
-        <v>N \ A</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W15)</f>
@@ -2636,16 +2631,16 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC15" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -2656,19 +2651,19 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33035487451750267</v>
+        <v>0.34109996161898792</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>teal</v>
+        <v>amber</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46162</v>
+        <v>40973</v>
       </c>
       <c r="G16" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2695,35 +2690,35 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000000201229433</v>
+        <v>3.0000000335820132</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="7"/>
-        <v>91.22</v>
+        <v>91.81</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="24"/>
-        <v>-91.22</v>
+        <v>-91.81</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="9"/>
-        <v>95.69</v>
+        <v>98.55</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="19"/>
-        <v>-95.69</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.9853815602319969</v>
+        <v>0</v>
       </c>
       <c r="U16" t="e">
         <f ca="1">IF(J16, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D16)</f>
@@ -2752,9 +2747,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC16" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -2772,19 +2767,19 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38825164913803256</v>
+        <v>0.78305249035646329</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>vermillon</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>42925</v>
+        <v>44273</v>
       </c>
       <c r="G17" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2800,7 +2795,7 @@
       </c>
       <c r="J17" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>5.0999999999999996</v>
@@ -2811,39 +2806,39 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0000002665710275</v>
+        <v>8.0199826923230724</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>8.0199829999999999</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="7"/>
-        <v>94.32</v>
+        <v>115.65</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="24"/>
-        <v>-94.32</v>
+        <v>115.65</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="9"/>
-        <v>111.73</v>
+        <v>324.58</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="19"/>
-        <v>-111.73</v>
+        <v>324.58</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.0520395070014721</v>
-      </c>
-      <c r="U17" t="e">
+        <v>2.5126577188325978</v>
+      </c>
+      <c r="U17">
         <f ca="1">IF(J17, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D17)</f>
-        <v>#REF!</v>
+        <v>8</v>
       </c>
       <c r="V17" t="s">
         <v>2</v>
@@ -2868,13 +2863,13 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB17" s="5" t="e">
+      <c r="AB17" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC17" s="5" t="e">
+        <v>44273</v>
+      </c>
+      <c r="AC17" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2888,19 +2883,19 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33129565216621593</v>
+        <v>0.83365550250542764</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>red</v>
+        <v>violet</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46713</v>
+        <v>44923</v>
       </c>
       <c r="G18" s="1" t="b">
         <f t="shared" si="22"/>
@@ -2916,7 +2911,7 @@
       </c>
       <c r="J18" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>5.0999999999999996</v>
@@ -2927,54 +2922,54 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0000000210596807</v>
+        <v>9.0544234334465692</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>9.0544229999999999</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0000000001</v>
+        <v>9.0000000001</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="7"/>
-        <v>91.27</v>
+        <v>119.37</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="24"/>
-        <v>-91.27</v>
+        <v>119.37</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="9"/>
-        <v>95.93</v>
+        <v>391</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="19"/>
-        <v>-95.93</v>
+        <v>391</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.9864582127373065</v>
-      </c>
-      <c r="U18" t="e">
+        <v>2.5932860670204572</v>
+      </c>
+      <c r="U18">
         <f ca="1">IF(J18, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D18)</f>
-        <v>#REF!</v>
+        <v>9</v>
       </c>
       <c r="V18" t="s">
         <v>2</v>
       </c>
       <c r="W18">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="X18" t="str">
         <f ca="1">INDEX(tbl_text[text], W18)</f>
-        <v/>
+        <v>na</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W18)</f>
@@ -2986,11 +2981,11 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC18" s="5" t="e">
+        <v>44923</v>
+      </c>
+      <c r="AC18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>44923</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -3004,19 +2999,19 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.36976529347622333</v>
+        <v>0.36752443689979641</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>yellow</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47355</v>
+        <v>48906</v>
       </c>
       <c r="G19" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3043,39 +3038,39 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>9.000000122128867</v>
+        <v>3.0000001108101477</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="7"/>
-        <v>93.35</v>
+        <v>93.23</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="24"/>
-        <v>-93.35</v>
+        <v>-93.23</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="9"/>
-        <v>106.43</v>
+        <v>105.8</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="19"/>
-        <v>-106.43</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.0311255757315654</v>
+        <v>0</v>
       </c>
       <c r="U19" t="e">
         <f ca="1">IF(J19, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D19)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V19" t="s">
         <v>2</v>
@@ -3100,9 +3095,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB19" s="5" t="e">
+      <c r="AB19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -3120,19 +3115,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.45016239917672307</v>
+        <v>0.11904240390645238</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>vermillon</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44970</v>
+        <v>40960</v>
       </c>
       <c r="G20" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3144,7 +3139,7 @@
       </c>
       <c r="I20" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3159,39 +3154,39 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0000028438551238</v>
+        <v>3.0000000000000018</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="18"/>
-        <v>4.0000030000000004</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="7"/>
-        <v>97.49</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="24"/>
-        <v>-97.49</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="9"/>
-        <v>130.94</v>
+        <v>45.61</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="19"/>
-        <v>-130.94</v>
+        <v>-45.61</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.1203764797444342</v>
+        <v>-1.6684791029325856</v>
       </c>
       <c r="U20" t="e">
         <f ca="1">IF(J20, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D20)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="V20" t="s">
         <v>2</v>
@@ -3236,11 +3231,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.21227452785752166</v>
+        <v>0.37672776934044117</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -3248,7 +3243,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>43832</v>
+        <v>50111</v>
       </c>
       <c r="G21" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3260,7 +3255,7 @@
       </c>
       <c r="I21" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3275,19 +3270,19 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000000000169971</v>
+        <v>6.0000001646046677</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>6.0000000001</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="7"/>
-        <v>84.03</v>
+        <v>93.72</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="24"/>
@@ -3295,7 +3290,7 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="9"/>
-        <v>66.78</v>
+        <v>108.41</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="19"/>
@@ -3307,18 +3302,18 @@
       </c>
       <c r="U21" t="e">
         <f ca="1">IF(J21, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D21)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V21" t="s">
         <v>2</v>
       </c>
       <c r="W21">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X21" t="str">
         <f ca="1">INDEX(tbl_text[text], W21)</f>
-        <v>_NA</v>
+        <v>N/A</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="20"/>
@@ -3352,19 +3347,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16467994744227898</v>
+        <v>0.64770672478541369</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>orange</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>49866</v>
+        <v>50236</v>
       </c>
       <c r="G22" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3376,11 +3371,11 @@
       </c>
       <c r="I22" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>5.0999999999999996</v>
@@ -3391,66 +3386,66 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0000000000002922</v>
+        <v>8.0009595210305076</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>8.0009599999999992</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="7"/>
-        <v>80.489999999999995</v>
+        <v>107.58</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="24"/>
-        <v>-80.489999999999995</v>
+        <v>107.58</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="9"/>
-        <v>55.96</v>
+        <v>216.83</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>216.83</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U22" t="e">
+        <v>2.3381176914768584</v>
+      </c>
+      <c r="U22">
         <f ca="1">IF(J22, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D22)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
       </c>
       <c r="W22">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X22" t="str">
         <f ca="1">INDEX(tbl_text[text], W22)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>na</v>
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="Z22" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W22)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA22">
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB22" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>50236</v>
       </c>
       <c r="AC22" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -3468,11 +3463,11 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="14"/>
-        <v>7.500777903340794E-2</v>
+        <v>0.16654488992331962</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -3480,7 +3475,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47631</v>
+        <v>40380</v>
       </c>
       <c r="G23" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3488,7 +3483,7 @@
       </c>
       <c r="H23" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
@@ -3507,62 +3502,62 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5.0000000000003499</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
-      </c>
-      <c r="P23" t="e">
+        <v>5.0000000001</v>
+      </c>
+      <c r="P23">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>80.64</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="R23" t="e">
+      <c r="R23">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" t="e">
+        <v>56.38</v>
+      </c>
+      <c r="S23">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" t="e">
+        <v>-56.38</v>
+      </c>
+      <c r="T23">
         <f t="shared" ca="1" si="23"/>
-        <v>#N/A</v>
+        <v>-1.7587605439099796</v>
       </c>
       <c r="U23" t="e">
         <f ca="1">IF(J23, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D23)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V23" t="s">
         <v>2</v>
       </c>
       <c r="W23">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X23" t="str">
         <f ca="1">INDEX(tbl_text[text], W23)</f>
-        <v>ab  cd</v>
+        <v>.</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="Z23" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W23)</f>
-        <v>ab cd</v>
-      </c>
-      <c r="AA23">
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB23" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -3584,19 +3579,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.72523913370609039</v>
+        <v>1.0227267217063019E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>purple</v>
+        <v>amber</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50335</v>
+        <v>49156</v>
       </c>
       <c r="G24" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3604,15 +3599,15 @@
       </c>
       <c r="H24" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>5.0999999999999996</v>
@@ -3623,66 +3618,66 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0058573299293396</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0058570000000007</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
-      </c>
-      <c r="P24">
+        <v>3.0000000001</v>
+      </c>
+      <c r="P24" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>111.97</v>
+        <v>#N/A</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="24"/>
-        <v>111.97</v>
-      </c>
-      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>270.01</v>
+        <v>#N/A</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="19"/>
-        <v>270.01</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4329853162053756</v>
-      </c>
-      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="e">
         <f ca="1">IF(J24, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D24)</f>
-        <v>8</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V24" t="s">
         <v>2</v>
       </c>
       <c r="W24">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X24" t="str">
         <f ca="1">INDEX(tbl_text[text], W24)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>na</v>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="Z24" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W24)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA24">
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB24" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>50335</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -3700,7 +3695,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.89852131026387272</v>
+        <v>0.55985709065737821</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="15"/>
@@ -3708,11 +3703,11 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>teal</v>
+        <v>orange</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>51343</v>
+        <v>46394</v>
       </c>
       <c r="G25" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3739,11 +3734,11 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1804904002143379</v>
+        <v>7.0000931611685822</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1804899999999998</v>
+        <v>7.0000929999999997</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="6"/>
@@ -3751,23 +3746,23 @@
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="7"/>
-        <v>125.46</v>
+        <v>103.01</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="24"/>
-        <v>125.46</v>
+        <v>103.01</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="9"/>
-        <v>530.16</v>
+        <v>172.54</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="19"/>
-        <v>530.16</v>
+        <v>172.54</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="23"/>
-        <v>2.7252253622308817</v>
+        <v>2.2393995931157873</v>
       </c>
       <c r="U25">
         <f ca="1">IF(J25, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D25)</f>
@@ -3778,31 +3773,31 @@
       </c>
       <c r="W25">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X25" t="str">
         <f ca="1">INDEX(tbl_text[text], W25)</f>
-        <v>N \ A</v>
+        <v>abc</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="Z25" t="e">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W25)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA25">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="AB25" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>51343</v>
-      </c>
-      <c r="AC25" s="5" t="e">
+        <v>46394</v>
+      </c>
+      <c r="AC25" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>46394</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3816,19 +3811,19 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71603956107617228</v>
+        <v>5.2202259562967201E-2</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>violet</v>
+        <v>magenta</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>51267</v>
+        <v>44304</v>
       </c>
       <c r="G26" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3836,15 +3831,15 @@
       </c>
       <c r="H26" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>5.0999999999999996</v>
@@ -3855,54 +3850,54 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0047752078826138</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0047750000000004</v>
+        <v>9</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
-      </c>
-      <c r="P26">
+        <v>9.0000000001</v>
+      </c>
+      <c r="P26" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>111.42</v>
-      </c>
-      <c r="Q26">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>111.42</v>
-      </c>
-      <c r="R26">
+        <v>#N/A</v>
+      </c>
+      <c r="R26" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>262.73</v>
-      </c>
-      <c r="S26">
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>262.73</v>
-      </c>
-      <c r="T26">
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4211595347740809</v>
-      </c>
-      <c r="U26">
+        <v>#N/A</v>
+      </c>
+      <c r="U26" t="e">
         <f ca="1">IF(J26, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D26)</f>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V26" t="s">
         <v>2</v>
       </c>
       <c r="W26">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X26" t="str">
         <f ca="1">INDEX(tbl_text[text], W26)</f>
-        <v>N \ A</v>
+        <v>N/A</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z26" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W26)</f>
@@ -3914,7 +3909,7 @@
       </c>
       <c r="AB26" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>51267</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -3932,19 +3927,19 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47701261046138688</v>
+        <v>0.48985818226008526</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>vermillon</v>
+        <v>amber</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46398</v>
+        <v>44487</v>
       </c>
       <c r="G27" s="1" t="b">
         <f t="shared" si="22"/>
@@ -3971,35 +3966,35 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0000071858436819</v>
+        <v>6.000010993243956</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0000070000000001</v>
+        <v>6.0000109999999998</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>6.0000000001</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="7"/>
-        <v>98.85</v>
+        <v>99.49</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-99.49</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="9"/>
-        <v>140.1</v>
+        <v>144.69</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="19"/>
-        <v>-140.1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.1495270137543478</v>
+        <v>0</v>
       </c>
       <c r="U27" t="e">
         <f ca="1">IF(J27, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D27)</f>
@@ -4010,23 +4005,23 @@
       </c>
       <c r="W27">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X27" t="str">
         <f ca="1">INDEX(tbl_text[text], W27)</f>
-        <v>N/A</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="Z27" t="str">
+        <f ca="1">INDEX(tbl_text[clean_text], W27)</f>
+        <v>abc</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
-      </c>
-      <c r="Z27" t="e">
-        <f ca="1">INDEX(tbl_text[clean_text], W27)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -4048,7 +4043,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.85358182697194485</v>
+        <v>4.0690547153809153E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="15"/>
@@ -4060,7 +4055,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45591</v>
+        <v>42165</v>
       </c>
       <c r="G28" s="1" t="b">
         <f t="shared" si="22"/>
@@ -4068,15 +4063,15 @@
       </c>
       <c r="H28" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>5.0999999999999996</v>
@@ -4087,70 +4082,70 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0794186616185044</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0794190000000001</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="6"/>
         <v>3.0000000001</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>121.04</v>
-      </c>
-      <c r="Q28">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>121.04</v>
-      </c>
-      <c r="R28">
+        <v>#N/A</v>
+      </c>
+      <c r="R28" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>424.93</v>
-      </c>
-      <c r="S28">
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>424.93</v>
-      </c>
-      <c r="T28">
+        <v>#N/A</v>
+      </c>
+      <c r="T28" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>2.6293382302958883</v>
-      </c>
-      <c r="U28">
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="e">
         <f ca="1">IF(J28, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D28)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V28" t="s">
         <v>2</v>
       </c>
       <c r="W28">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X28" t="str">
         <f ca="1">INDEX(tbl_text[text], W28)</f>
-        <v>N/A</v>
+        <v>ab  cd</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z28" t="e">
+        <v>6</v>
+      </c>
+      <c r="Z28" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA28" t="e">
+        <v>ab cd</v>
+      </c>
+      <c r="AA28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB28" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>45591</v>
-      </c>
-      <c r="AC28" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>45591</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -4164,19 +4159,19 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="14"/>
-        <v>1.1332834869777875E-2</v>
+        <v>0.60996805967336398</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>blue</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44938</v>
+        <v>48262</v>
       </c>
       <c r="G29" s="1" t="b">
         <f t="shared" si="22"/>
@@ -4184,15 +4179,15 @@
       </c>
       <c r="H29" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>5.0999999999999996</v>
@@ -4203,54 +4198,54 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3.0003672091614559</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>3.0003669999999998</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
-      </c>
-      <c r="P29" t="e">
+        <v>3.0000000001</v>
+      </c>
+      <c r="P29">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" t="e">
+        <v>105.58</v>
+      </c>
+      <c r="Q29">
         <f t="shared" ca="1" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" t="e">
+        <v>105.58</v>
+      </c>
+      <c r="R29">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" t="e">
+        <v>196.22</v>
+      </c>
+      <c r="S29">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T29" t="e">
+        <v>196.22</v>
+      </c>
+      <c r="T29">
         <f t="shared" ca="1" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U29" t="e">
+        <v>2.2949509544652682</v>
+      </c>
+      <c r="U29">
         <f ca="1">IF(J29, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D29)</f>
-        <v>#REF!</v>
+        <v>3</v>
       </c>
       <c r="V29" t="s">
         <v>2</v>
       </c>
       <c r="W29">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X29" t="str">
         <f ca="1">INDEX(tbl_text[text], W29)</f>
-        <v>na</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y29">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W29)</f>
@@ -4262,7 +4257,7 @@
       </c>
       <c r="AB29" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>48262</v>
       </c>
       <c r="AC29" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -4280,19 +4275,19 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.21123884398548687</v>
+        <v>0.12109778014300832</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>red</v>
+        <v>teal</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>41038</v>
+        <v>46927</v>
       </c>
       <c r="G30" s="1" t="b">
         <f t="shared" si="22"/>
@@ -4319,66 +4314,66 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000000000157172</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="7"/>
-        <v>83.96</v>
+        <v>76.61</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-76.61</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="9"/>
-        <v>66.540000000000006</v>
+        <v>46.08</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="19"/>
-        <v>-66.540000000000006</v>
+        <v>-46.08</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.8295610562993927</v>
+        <v>-1.6728364541713971</v>
       </c>
       <c r="U30" t="e">
         <f ca="1">IF(J30, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D30)</f>
-        <v>#NUM!</v>
+        <v>#REF!</v>
       </c>
       <c r="V30" t="s">
         <v>2</v>
       </c>
       <c r="W30">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" t="str">
         <f ca="1">INDEX(tbl_text[text], W30)</f>
-        <v>ab  cd</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y30">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z30" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W30)</f>
-        <v>ab cd</v>
+        <v>abc</v>
       </c>
       <c r="AA30">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="AB30" s="5" t="e">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -4396,19 +4391,19 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29515356814010618</v>
+        <v>0.31492947920156489</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>violet</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46077</v>
+        <v>46004</v>
       </c>
       <c r="G31" s="1" t="b">
         <f t="shared" si="22"/>
@@ -4435,54 +4430,54 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000000033171768</v>
+        <v>4.0000000093629575</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="7"/>
-        <v>89.23</v>
+        <v>90.36</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="24"/>
-        <v>-89.23</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="9"/>
-        <v>86.63</v>
+        <v>91.66</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="19"/>
-        <v>-86.63</v>
+        <v>-91.66</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.9426528116932122</v>
+        <v>-1.9668922958671364</v>
       </c>
       <c r="U31" t="e">
         <f ca="1">IF(J31, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D31)</f>
-        <v>#NUM!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V31" t="s">
         <v>2</v>
       </c>
       <c r="W31">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X31" t="str">
         <f ca="1">INDEX(tbl_text[text], W31)</f>
-        <v>na</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W31)</f>
@@ -4509,11 +4504,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452EE6F-54F8-4031-B4EA-2C20778AAAFF}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,7 +4518,7 @@
     <col min="5" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -4563,12 +4558,8 @@
       <c r="M1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P1">
-        <f>COLUMN(M1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4605,7 +4596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -4638,7 +4629,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4673,7 +4664,7 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4709,7 +4700,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4744,7 +4735,7 @@
         <v>character</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4780,7 +4771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -4816,7 +4807,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -4849,7 +4840,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4882,7 +4873,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4912,7 +4903,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4945,7 +4936,7 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4978,7 +4969,7 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5009,7 +5000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -5041,7 +5032,7 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -5574,18 +5565,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A0579E-B20B-4F81-9554-B3FA11E7011F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8933B6-5EB4-40B6-849D-1849ECCB2220}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -5808,7 +5787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770DDC72-8720-462A-B9D1-D3BABD79A7A0}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -5864,7 +5843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52771982-D1CE-439C-9032-FAFFB489AC51}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/inst/extdata/preproc.xlsx
+++ b/inst/extdata/preproc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyR\Packages\flrpkgPreproc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B0130-B4F8-4A17-AED7-A8EDEFAE9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E46A6F-CB76-4A9D-AF94-B397708843FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5797C449-39AA-4F4E-B9E8-85AE9EADE789}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5797C449-39AA-4F4E-B9E8-85AE9EADE789}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
   <si>
     <t>same_num</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>len_cont_text</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -907,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1150F7-836E-4DCF-A644-F6BE05CA6878}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,9 +931,10 @@
     <col min="17" max="21" width="17" customWidth="1"/>
     <col min="22" max="27" width="12.7109375" customWidth="1"/>
     <col min="28" max="29" width="15.7109375" style="5" customWidth="1"/>
+    <col min="30" max="31" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1015,8 +1022,11 @@
       <c r="AC1" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>ROW() - 1</f>
         <v>1</v>
@@ -1027,19 +1037,19 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.54552059586872126</v>
+        <v>0.62368367672337155</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1, 9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1, 12), "blue", "red", "yellow", "purple", "green", "orange", "amber", "vermillon", "magenta", "violet", "teal", "chartreuse")</f>
-        <v>green</v>
+        <v>yellow</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2010, 1, 1), DATE(2040, 12, 31))</f>
-        <v>47693</v>
+        <v>42904</v>
       </c>
       <c r="G2" s="1" t="b">
         <f t="shared" ref="G2" si="0">ROW() = 3</f>
@@ -1066,54 +1076,54 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M31" ca="1" si="5">D2 + POWER(C2, 16)</f>
-        <v>4.0000615146318239</v>
+        <v>7.0005241191680501</v>
       </c>
       <c r="N2">
         <f ca="1">ROUND(M2, 6)</f>
-        <v>4.0000619999999998</v>
+        <v>7.0005240000000004</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O31" ca="1" si="6">D2 + POWER(10, -10)</f>
-        <v>4.0000000001</v>
+        <v>7.0000000001</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P31" ca="1" si="7">IF(H2, NA(), ROUND(_xlfn.NORM.INV(C2, 100, 20), 2))</f>
-        <v>102.29</v>
+        <v>106.3</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q3" ca="1" si="8">IF(J2, IF(RAND() &lt; 0.5, 0, -P2), P2)</f>
-        <v>102.29</v>
+        <v>106.3</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R31" ca="1" si="9">IF(H2, NA(), ROUND(_xlfn.LOGNORM.INV(C2, 5, 1), 2))</f>
-        <v>166.39</v>
+        <v>203.4</v>
       </c>
       <c r="S2">
         <f ca="1">IF(J2, IF(RAND() &lt; 0.5, 0, -R2), R2)</f>
-        <v>166.39</v>
+        <v>203.4</v>
       </c>
       <c r="T2">
         <f ca="1">SIGN(S2) *LOG10(ABS(S2) + 1)</f>
-        <v>2.223729509364877</v>
+        <v>2.3104808914626753</v>
       </c>
       <c r="U2">
         <f ca="1">IF(J2, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D2)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V2" t="s">
         <v>2</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X2" t="str">
         <f ca="1">INDEX(tbl_text[text], W2)</f>
-        <v>N/A</v>
+        <v/>
       </c>
       <c r="Y2">
         <f ca="1">LEN(X2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W2)</f>
@@ -1125,14 +1135,18 @@
       </c>
       <c r="AB2" s="5">
         <f t="shared" ref="AB2:AB31" ca="1" si="11">IF(J2, IF(RAND() &lt; 0.5, NA(), date_default), F2)</f>
-        <v>47693</v>
-      </c>
-      <c r="AC2" s="5" t="e">
+        <v>42904</v>
+      </c>
+      <c r="AC2" s="5">
         <f t="shared" ref="AC2:AC31" ca="1" si="12">IF(AND(AB2 &gt;= date_start, AB2 &lt; date_end), AB2, NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>42904</v>
+      </c>
+      <c r="AD2" s="1">
+        <f ca="1">AB2 + D2</f>
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A31" si="13">ROW() - 1</f>
         <v>2</v>
@@ -1143,19 +1157,19 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C31" ca="1" si="14">RAND()</f>
-        <v>0.3847405947153818</v>
+        <v>0.70341631684566475</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="15">RANDBETWEEN(1, 9)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E31" ca="1" si="16">CHOOSE(RANDBETWEEN(1, 12), "blue", "red", "yellow", "purple", "green", "orange", "amber", "vermillon", "magenta", "violet", "teal", "chartreuse")</f>
-        <v>magenta</v>
+        <v>red</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F31" ca="1" si="17">RANDBETWEEN(DATE(2010, 1, 1), DATE(2040, 12, 31))</f>
-        <v>42361</v>
+        <v>51459</v>
       </c>
       <c r="G3" s="1" t="b">
         <f>ROW() = 3</f>
@@ -1171,7 +1185,7 @@
       </c>
       <c r="J3" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>5.0999999999999996</v>
@@ -1182,99 +1196,103 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.000000230509162</v>
+        <v>2.0035925184883312</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N31" ca="1" si="18">ROUND(M3, 6)</f>
-        <v>4</v>
+        <v>2.003593</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="7"/>
-        <v>94.14</v>
+        <v>110.69</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="8"/>
-        <v>-94.14</v>
+        <v>110.69</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="9"/>
-        <v>110.71</v>
+        <v>253.22</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S31" ca="1" si="19">IF(J3, IF(RAND() &lt; 0.5, 0, -R3), R3)</f>
-        <v>0</v>
+        <v>253.22</v>
       </c>
       <c r="T3">
         <f ca="1">SIGN(S3) *LOG10(ABS(S3) + 1)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" t="e">
+        <v>2.4052097143846334</v>
+      </c>
+      <c r="U3">
         <f ca="1">IF(J3, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D3)</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
       </c>
       <c r="W3">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X3" t="str">
         <f ca="1">INDEX(tbl_text[text], W3)</f>
-        <v>abc</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y31" ca="1" si="20">LEN(X3)</f>
-        <v>3</v>
-      </c>
-      <c r="Z3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W3)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA3">
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AB3" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB3" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>51459</v>
       </c>
       <c r="AC3" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3" s="1">
+        <f t="shared" ref="AD3:AD31" ca="1" si="21">AB3 + D3</f>
+        <v>51461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B31" si="21">IF(G4, B5, A4)</f>
+        <f t="shared" ref="B4:B31" si="22">IF(G4, B5, A4)</f>
         <v>3</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.76570641206774315</v>
+        <v>0.25492341415998809</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>yellow</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45283</v>
+        <v>44049</v>
       </c>
       <c r="G4" s="1" t="b">
-        <f t="shared" ref="G4:G31" si="22">ROW() = 3</f>
+        <f t="shared" ref="G4:G31" si="23">ROW() = 3</f>
         <v>0</v>
       </c>
       <c r="H4" s="1" t="b">
@@ -1287,7 +1305,7 @@
       </c>
       <c r="J4" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>5.0999999999999996</v>
@@ -1298,54 +1316,54 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0139635724480547</v>
+        <v>5.000000000318094</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="18"/>
-        <v>6.0139639999999996</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="7"/>
-        <v>114.5</v>
+        <v>86.82</v>
       </c>
       <c r="Q4">
         <f ca="1">IF(J4, IF(RAND() &lt; 0.5, 0, -P4), P4)</f>
-        <v>114.5</v>
+        <v>-86.82</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="9"/>
-        <v>306.37</v>
+        <v>76.78</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="19"/>
-        <v>306.37</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T31" ca="1" si="23">SIGN(S4) *LOG10(ABS(S4) + 1)</f>
-        <v>2.4876614771186447</v>
-      </c>
-      <c r="U4">
+        <f t="shared" ref="T4:T31" ca="1" si="24">SIGN(S4) *LOG10(ABS(S4) + 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" t="e">
         <f ca="1">IF(J4, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D4)</f>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V4" t="s">
         <v>2</v>
       </c>
       <c r="W4">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
-      </c>
-      <c r="X4" t="str">
+        <v>7</v>
+      </c>
+      <c r="X4" t="e">
         <f ca="1">INDEX(tbl_text[text], W4)</f>
-        <v>_NA</v>
-      </c>
-      <c r="Y4">
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="Z4" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W4)</f>
@@ -1357,40 +1375,44 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>45283</v>
-      </c>
-      <c r="AC4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>45283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.65856448153388014</v>
+        <v>0.95522738245815741</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>amber</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45497</v>
+        <v>43123</v>
       </c>
       <c r="G5" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H5" s="1" t="b">
@@ -1414,54 +1436,54 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0012519093012866</v>
+        <v>9.4805163998110284</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0012519999999991</v>
+        <v>9.4805159999999997</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>9.0000000001</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="7"/>
-        <v>108.17</v>
+        <v>133.96</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q31" ca="1" si="24">IF(J5, IF(RAND() &lt; 0.5, 0, -P5), P5)</f>
-        <v>108.17</v>
+        <f t="shared" ref="Q5:Q31" ca="1" si="25">IF(J5, IF(RAND() &lt; 0.5, 0, -P5), P5)</f>
+        <v>133.96</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="9"/>
-        <v>223.31</v>
+        <v>810.62</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="19"/>
-        <v>223.31</v>
+        <v>810.62</v>
       </c>
       <c r="T5">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.3508486353663418</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.9093527404098767</v>
       </c>
       <c r="U5">
         <f ca="1">IF(J5, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D5)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
       </c>
       <c r="W5">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X5" t="str">
         <f ca="1">INDEX(tbl_text[text], W5)</f>
-        <v>na</v>
+        <v>_NA</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W5)</f>
@@ -1473,40 +1495,44 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>45497</v>
+        <v>43123</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>43123</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.51122339193337785</v>
+        <v>0.41510484905525646</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>violet</v>
+        <v>chartreuse</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45847</v>
+        <v>44189</v>
       </c>
       <c r="G6" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="b">
@@ -1519,7 +1545,7 @@
       </c>
       <c r="J6" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>5.0999999999999996</v>
@@ -1530,99 +1556,103 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0000217656419341</v>
+        <v>5.0000007771858881</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0000219999999995</v>
+        <v>5.0000010000000001</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="7"/>
-        <v>100.56</v>
+        <v>95.71</v>
       </c>
       <c r="Q6">
-        <f t="shared" ca="1" si="24"/>
-        <v>100.56</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>-95.71</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="9"/>
-        <v>152.65</v>
+        <v>119.77</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="19"/>
-        <v>152.65</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.186532564592397</v>
-      </c>
-      <c r="U6">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U6" t="e">
         <f ca="1">IF(J6, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D6)</f>
-        <v>9</v>
+        <v>#REF!</v>
       </c>
       <c r="V6" t="s">
         <v>2</v>
       </c>
       <c r="W6">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X6" t="str">
         <f ca="1">INDEX(tbl_text[text], W6)</f>
-        <v>ab  cd</v>
+        <v>N/A</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="Z6" t="str">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W6)</f>
-        <v>ab cd</v>
-      </c>
-      <c r="AA6">
+        <v>#N/A</v>
+      </c>
+      <c r="AA6" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>45847</v>
-      </c>
-      <c r="AC6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>45847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.95212766515523506</v>
+        <v>0.24451681431716699</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>red</v>
+        <v>yellow</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47833</v>
+        <v>50865</v>
       </c>
       <c r="G7" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H7" s="1" t="b">
@@ -1631,11 +1661,11 @@
       </c>
       <c r="I7" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>5.0999999999999996</v>
@@ -1646,99 +1676,103 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4561660376699379</v>
+        <v>3.0000000001632827</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4561660000000001</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="7"/>
-        <v>133.32</v>
+        <v>86.16</v>
       </c>
       <c r="Q7">
-        <f t="shared" ca="1" si="24"/>
-        <v>133.32</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>-86.16</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="9"/>
-        <v>785.13</v>
+        <v>74.3</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="19"/>
-        <v>785.13</v>
+        <v>-74.3</v>
       </c>
       <c r="T7">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.8954943699760749</v>
-      </c>
-      <c r="U7">
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.8767949762007006</v>
+      </c>
+      <c r="U7" t="e">
         <f ca="1">IF(J7, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D7)</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="V7" t="s">
         <v>2</v>
       </c>
       <c r="W7">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
-      </c>
-      <c r="X7" t="str">
+        <v>7</v>
+      </c>
+      <c r="X7" t="e">
         <f ca="1">INDEX(tbl_text[text], W7)</f>
-        <v>abc</v>
-      </c>
-      <c r="Y7">
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W7)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA7">
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>47833</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33641052066474375</v>
+        <v>0.26697690927233686</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>amber</v>
+        <v>purple</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46413</v>
+        <v>51395</v>
       </c>
       <c r="G8" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H8" s="1" t="b">
@@ -1762,35 +1796,35 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0000000269099631</v>
+        <v>6.0000000006661613</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0000000001</v>
+        <v>6.0000000001</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="7"/>
-        <v>91.55</v>
+        <v>87.56</v>
       </c>
       <c r="Q8">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="9"/>
-        <v>97.29</v>
+        <v>79.680000000000007</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="19"/>
-        <v>-97.29</v>
+        <v>-79.680000000000007</v>
       </c>
       <c r="T8">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.9925093350677756</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.9067658895407278</v>
       </c>
       <c r="U8" t="e">
         <f ca="1">IF(J8, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D8)</f>
@@ -1801,60 +1835,64 @@
       </c>
       <c r="W8">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X8" t="str">
         <f ca="1">INDEX(tbl_text[text], W8)</f>
-        <v>.</v>
+        <v>ab  cd</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Z8" t="e">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" t="e">
+        <v>ab cd</v>
+      </c>
+      <c r="AA8">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB8" s="5" t="e">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.92356496640494723</v>
+        <v>0.52555804024309716</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>green</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40760</v>
+        <v>48606</v>
       </c>
       <c r="G9" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H9" s="1" t="b">
@@ -1878,54 +1916,54 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2802071464441083</v>
+        <v>5.000033879028825</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>6.2802069999999999</v>
+        <v>5.0000340000000003</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="7"/>
-        <v>128.59</v>
+        <v>101.28</v>
       </c>
       <c r="Q9">
-        <f t="shared" ca="1" si="24"/>
-        <v>128.59</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>101.28</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="9"/>
-        <v>619.84</v>
+        <v>158.24</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="19"/>
-        <v>619.84</v>
+        <v>158.24</v>
       </c>
       <c r="T9">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.7929796902405353</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.2020521689120605</v>
       </c>
       <c r="U9">
         <f ca="1">IF(J9, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D9)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" t="str">
         <f ca="1">INDEX(tbl_text[text], W9)</f>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W9)</f>
@@ -1937,40 +1975,44 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>40760</v>
-      </c>
-      <c r="AC9" s="5">
+        <v>48606</v>
+      </c>
+      <c r="AC9" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>40760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>48611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48139140864888197</v>
+        <v>0.42240216263573438</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>blue</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40728</v>
+        <v>41681</v>
       </c>
       <c r="G10" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H10" s="1" t="b">
@@ -1994,62 +2036,62 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0000083171275742</v>
+        <v>3.0000010271127699</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0000079999999998</v>
+        <v>3.0000010000000001</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="7"/>
-        <v>99.07</v>
+        <v>96.08</v>
       </c>
       <c r="Q10">
-        <f t="shared" ca="1" si="24"/>
-        <v>-99.07</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>-96.08</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="9"/>
-        <v>141.65</v>
+        <v>122.03</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="19"/>
-        <v>-141.65</v>
+        <v>-122.03</v>
       </c>
       <c r="T10">
-        <f t="shared" ca="1" si="23"/>
-        <v>-2.1542717759930952</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>-2.090011024007147</v>
       </c>
       <c r="U10" t="e">
         <f ca="1">IF(J10, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D10)</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
       </c>
       <c r="W10">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X10" t="str">
         <f ca="1">INDEX(tbl_text[text], W10)</f>
-        <v xml:space="preserve"> </v>
+        <v>abc</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Z10" t="e">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA10">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -2059,34 +2101,38 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.75258120378286464</v>
+        <v>0.46552711564277161</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>violet</v>
+        <v>purple</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44008</v>
+        <v>48404</v>
       </c>
       <c r="G11" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H11" s="1" t="b">
@@ -2099,7 +2145,7 @@
       </c>
       <c r="J11" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>5.0999999999999996</v>
@@ -2110,54 +2156,54 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0105889738843361</v>
+        <v>7.0000048654130955</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="18"/>
-        <v>4.0105890000000004</v>
+        <v>7.0000049999999998</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>7.0000000001</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="7"/>
-        <v>113.65</v>
+        <v>98.27</v>
       </c>
       <c r="Q11">
-        <f t="shared" ca="1" si="24"/>
-        <v>113.65</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="9"/>
-        <v>293.72000000000003</v>
+        <v>136.11000000000001</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="19"/>
-        <v>293.72000000000003</v>
+        <v>-136.11000000000001</v>
       </c>
       <c r="T11">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.469409608516755</v>
-      </c>
-      <c r="U11">
+        <f t="shared" ca="1" si="24"/>
+        <v>-2.1370691308394085</v>
+      </c>
+      <c r="U11" t="e">
         <f ca="1">IF(J11, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D11)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V11" t="s">
         <v>2</v>
       </c>
       <c r="W11">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11" t="str">
         <f ca="1">INDEX(tbl_text[text], W11)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>abc</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W11)</f>
@@ -2167,42 +2213,46 @@
         <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>44008</v>
-      </c>
-      <c r="AC11" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="AC11" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.8364143747465812</v>
+        <v>0.49880472493954053</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>vermillon</v>
+        <v>green</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40989</v>
+        <v>50294</v>
       </c>
       <c r="G12" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H12" s="1" t="b">
@@ -2215,7 +2265,7 @@
       </c>
       <c r="J12" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>5.0999999999999996</v>
@@ -2226,99 +2276,103 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0573777889857565</v>
+        <v>1.0000146855068115</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0573779999999999</v>
+        <v>1.0000150000000001</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>1.0000000001</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="7"/>
-        <v>119.6</v>
+        <v>99.94</v>
       </c>
       <c r="Q12">
-        <f t="shared" ca="1" si="24"/>
-        <v>119.6</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="9"/>
-        <v>395.37</v>
+        <v>147.97</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="19"/>
-        <v>395.37</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.5981007766722173</v>
-      </c>
-      <c r="U12">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U12" t="e">
         <f ca="1">IF(J12, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D12)</f>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V12" t="s">
         <v>2</v>
       </c>
       <c r="W12">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X12" t="str">
         <f ca="1">INDEX(tbl_text[text], W12)</f>
-        <v>.</v>
+        <v>abc</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Z12" t="e">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA12">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>40989</v>
-      </c>
-      <c r="AC12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>40989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90619666045744462</v>
+        <v>0.17050145198083122</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>vermillon</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>49844</v>
+        <v>46702</v>
       </c>
       <c r="G13" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H13" s="1" t="b">
@@ -2327,11 +2381,11 @@
       </c>
       <c r="I13" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>5.0999999999999996</v>
@@ -2342,54 +2396,54 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2068041825311164</v>
+        <v>3.0000000000005103</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="18"/>
-        <v>7.206804</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="7"/>
-        <v>126.35</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="Q13">
-        <f t="shared" ca="1" si="24"/>
-        <v>126.35</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="9"/>
-        <v>554.29</v>
+        <v>57.27</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="19"/>
-        <v>554.29</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.7445198525038577</v>
-      </c>
-      <c r="U13">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U13" t="e">
         <f ca="1">IF(J13, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D13)</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V13" t="s">
         <v>2</v>
       </c>
       <c r="W13">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X13" t="str">
         <f ca="1">INDEX(tbl_text[text], W13)</f>
-        <v>N/A</v>
+        <v>N \ A</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W13)</f>
@@ -2401,40 +2455,44 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>49844</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.18383933787732243</v>
+        <v>0.99015164024457125</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>blue</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>48141</v>
+        <v>40843</v>
       </c>
       <c r="G14" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H14" s="1" t="b">
@@ -2443,11 +2501,11 @@
       </c>
       <c r="I14" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>5.0999999999999996</v>
@@ -2458,84 +2516,88 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000000000017026</v>
+        <v>8.8535468813497111</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>8.8535470000000007</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="7"/>
-        <v>81.98</v>
+        <v>146.63999999999999</v>
       </c>
       <c r="Q14">
-        <f t="shared" ca="1" si="24"/>
-        <v>-81.98</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>146.63999999999999</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="9"/>
-        <v>60.29</v>
+        <v>1528.55</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="19"/>
-        <v>-60.29</v>
+        <v>1528.55</v>
       </c>
       <c r="T14">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.7873896213521101</v>
-      </c>
-      <c r="U14" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>3.1845636783584035</v>
+      </c>
+      <c r="U14">
         <f ca="1">IF(J14, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D14)</f>
-        <v>#NUM!</v>
+        <v>8</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
       </c>
       <c r="W14">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X14" t="str">
         <f ca="1">INDEX(tbl_text[text], W14)</f>
-        <v>_NA</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="Z14" t="str">
+        <f ca="1">INDEX(tbl_text[clean_text], W14)</f>
+        <v>abc</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="Z14" t="e">
-        <f ca="1">INDEX(tbl_text[clean_text], W14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" s="5" t="e">
+      <c r="AB14" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" s="5" t="e">
+        <v>40843</v>
+      </c>
+      <c r="AC14" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>40843</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>40851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.10609559841606353</v>
+        <v>0.71847349843824648</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="15"/>
@@ -2543,14 +2605,14 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>yellow</v>
+        <v>magenta</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46059</v>
+        <v>50015</v>
       </c>
       <c r="G15" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H15" s="1" t="b">
@@ -2559,11 +2621,11 @@
       </c>
       <c r="I15" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>5.0999999999999996</v>
@@ -2574,11 +2636,11 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>9.005041642589541</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>9.0050419999999995</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
@@ -2586,76 +2648,80 @@
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="7"/>
-        <v>75.05</v>
+        <v>111.57</v>
       </c>
       <c r="Q15">
-        <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>111.57</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="9"/>
-        <v>42.62</v>
+        <v>264.62</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>264.62</v>
       </c>
       <c r="T15">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U15" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>2.4242607723624916</v>
+      </c>
+      <c r="U15">
         <f ca="1">IF(J15, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D15)</f>
-        <v>#REF!</v>
+        <v>9</v>
       </c>
       <c r="V15" t="s">
         <v>2</v>
       </c>
       <c r="W15">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X15" t="str">
         <f ca="1">INDEX(tbl_text[text], W15)</f>
-        <v xml:space="preserve"> </v>
+        <v>abc</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Z15" t="e">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W15)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA15">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB15" s="5" t="e">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>50015</v>
       </c>
       <c r="AC15" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>50024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.34109996161898792</v>
+        <v>0.1407242006711692</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -2663,10 +2729,10 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40973</v>
+        <v>49620</v>
       </c>
       <c r="G16" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H16" s="1" t="b">
@@ -2675,7 +2741,7 @@
       </c>
       <c r="I16" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -2690,99 +2756,103 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000335820132</v>
+        <v>4.000000000000024</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="7"/>
-        <v>91.81</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="Q16">
-        <f t="shared" ca="1" si="24"/>
-        <v>-91.81</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="9"/>
-        <v>98.55</v>
+        <v>50.55</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="U16" t="e">
         <f ca="1">IF(J16, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D16)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="V16" t="s">
         <v>2</v>
       </c>
       <c r="W16">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X16" t="str">
         <f ca="1">INDEX(tbl_text[text], W16)</f>
-        <v>abc</v>
+        <v>na</v>
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z16" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W16)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA16">
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AB16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB16" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.78305249035646329</v>
+        <v>0.12531102985899323</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>vermillon</v>
+        <v>chartreuse</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44273</v>
+        <v>47386</v>
       </c>
       <c r="G17" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="b">
@@ -2791,11 +2861,11 @@
       </c>
       <c r="I17" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>5.0999999999999996</v>
@@ -2806,54 +2876,54 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0199826923230724</v>
+        <v>3.0000000000000036</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0199829999999999</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="7"/>
-        <v>115.65</v>
+        <v>77.02</v>
       </c>
       <c r="Q17">
-        <f t="shared" ca="1" si="24"/>
-        <v>115.65</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>-77.02</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="9"/>
-        <v>324.58</v>
+        <v>47.05</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="19"/>
-        <v>324.58</v>
+        <v>-47.05</v>
       </c>
       <c r="T17">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.5126577188325978</v>
-      </c>
-      <c r="U17">
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.6816933920045642</v>
+      </c>
+      <c r="U17" t="e">
         <f ca="1">IF(J17, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D17)</f>
-        <v>8</v>
+        <v>#NUM!</v>
       </c>
       <c r="V17" t="s">
         <v>2</v>
       </c>
       <c r="W17">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X17" t="str">
         <f ca="1">INDEX(tbl_text[text], W17)</f>
-        <v>_NA</v>
+        <v>na</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W17)</f>
@@ -2865,29 +2935,33 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>44273</v>
-      </c>
-      <c r="AC17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>44273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.83365550250542764</v>
+        <v>0.27866392649211402</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -2895,10 +2969,10 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44923</v>
+        <v>46571</v>
       </c>
       <c r="G18" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H18" s="1" t="b">
@@ -2911,7 +2985,7 @@
       </c>
       <c r="J18" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>5.0999999999999996</v>
@@ -2922,54 +2996,54 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0544234334465692</v>
+        <v>3.0000000013221846</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0544229999999999</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="7"/>
-        <v>119.37</v>
+        <v>88.26</v>
       </c>
       <c r="Q18">
-        <f t="shared" ca="1" si="24"/>
-        <v>119.37</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="9"/>
-        <v>391</v>
+        <v>82.53</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="19"/>
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.5932860670204572</v>
-      </c>
-      <c r="U18">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U18" t="e">
         <f ca="1">IF(J18, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D18)</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="V18" t="s">
         <v>2</v>
       </c>
       <c r="W18">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X18" t="str">
         <f ca="1">INDEX(tbl_text[text], W18)</f>
-        <v>na</v>
+        <v>N/A</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z18" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W18)</f>
@@ -2981,25 +3055,29 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>44923</v>
-      </c>
-      <c r="AC18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>44923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.36752443689979641</v>
+        <v>0.16034020377926195</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="15"/>
@@ -3007,14 +3085,14 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>yellow</v>
+        <v>purple</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>48906</v>
+        <v>44048</v>
       </c>
       <c r="G19" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H19" s="1" t="b">
@@ -3023,7 +3101,7 @@
       </c>
       <c r="I19" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3038,7 +3116,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000001108101477</v>
+        <v>3.000000000000191</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="18"/>
@@ -3050,42 +3128,42 @@
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="7"/>
-        <v>93.23</v>
+        <v>80.14</v>
       </c>
       <c r="Q19">
-        <f t="shared" ca="1" si="24"/>
-        <v>-93.23</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="9"/>
-        <v>105.8</v>
+        <v>54.98</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-54.98</v>
       </c>
       <c r="T19">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.7480328941301435</v>
       </c>
       <c r="U19" t="e">
         <f ca="1">IF(J19, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D19)</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V19" t="s">
         <v>2</v>
       </c>
       <c r="W19">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X19" t="str">
         <f ca="1">INDEX(tbl_text[text], W19)</f>
-        <v>na</v>
+        <v/>
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W19)</f>
@@ -3095,42 +3173,46 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC19" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.11904240390645238</v>
+        <v>0.33009602127080018</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>vermillon</v>
+        <v>teal</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40960</v>
+        <v>47561</v>
       </c>
       <c r="G20" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="b">
@@ -3139,7 +3221,7 @@
       </c>
       <c r="I20" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3154,54 +3236,54 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000000000018</v>
+        <v>8.0000000198721395</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="7"/>
-        <v>76.400000000000006</v>
+        <v>91.21</v>
       </c>
       <c r="Q20">
-        <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>-91.21</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="9"/>
-        <v>45.61</v>
+        <v>95.62</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="19"/>
-        <v>-45.61</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.6684791029325856</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
       </c>
       <c r="U20" t="e">
         <f ca="1">IF(J20, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D20)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V20" t="s">
         <v>2</v>
       </c>
       <c r="W20">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X20" t="str">
         <f ca="1">INDEX(tbl_text[text], W20)</f>
-        <v>_NA</v>
+        <v>N \ A</v>
       </c>
       <c r="Y20">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z20" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W20)</f>
@@ -3211,31 +3293,35 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB20" s="5" t="e">
+      <c r="AB20" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.37672776934044117</v>
+        <v>6.4342068063643287E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -3243,19 +3329,19 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50111</v>
+        <v>47749</v>
       </c>
       <c r="G21" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H21" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3270,34 +3356,34 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000001646046677</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
-      </c>
-      <c r="P21">
+        <v>8.0000000001</v>
+      </c>
+      <c r="P21" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>93.72</v>
+        <v>#N/A</v>
       </c>
       <c r="Q21">
-        <f t="shared" ca="1" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R21" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>108.41</v>
+        <v>#N/A</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="U21" t="e">
@@ -3309,15 +3395,15 @@
       </c>
       <c r="W21">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X21" t="str">
         <f ca="1">INDEX(tbl_text[text], W21)</f>
-        <v>N/A</v>
+        <v>.</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W21)</f>
@@ -3335,34 +3421,38 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64770672478541369</v>
+        <v>0.75628499480905631</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>chartreuse</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50236</v>
+        <v>43057</v>
       </c>
       <c r="G22" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H22" s="1" t="b">
@@ -3386,54 +3476,54 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0009595210305076</v>
+        <v>5.0114542785615761</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0009599999999992</v>
+        <v>5.0114539999999996</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="7"/>
-        <v>107.58</v>
+        <v>113.89</v>
       </c>
       <c r="Q22">
-        <f t="shared" ca="1" si="24"/>
-        <v>107.58</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>113.89</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="9"/>
-        <v>216.83</v>
+        <v>297.2</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="19"/>
-        <v>216.83</v>
+        <v>297.2</v>
       </c>
       <c r="T22">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.3381176914768584</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.4745076391169758</v>
       </c>
       <c r="U22">
         <f ca="1">IF(J22, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D22)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
       </c>
       <c r="W22">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X22" t="str">
         <f ca="1">INDEX(tbl_text[text], W22)</f>
-        <v>na</v>
+        <v>_NA</v>
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W22)</f>
@@ -3445,40 +3535,44 @@
       </c>
       <c r="AB22" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>50236</v>
-      </c>
-      <c r="AC22" s="5" t="e">
+        <v>43057</v>
+      </c>
+      <c r="AC22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+        <v>43057</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16654488992331962</v>
+        <v>0.48193632536082498</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>amber</v>
+        <v>chartreuse</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40380</v>
+        <v>41559</v>
       </c>
       <c r="G23" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H23" s="1" t="b">
@@ -3487,7 +3581,7 @@
       </c>
       <c r="I23" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3502,39 +3596,39 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000000000003499</v>
+        <v>4.0000084690479394</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>4.0000080000000002</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="7"/>
-        <v>80.64</v>
+        <v>99.09</v>
       </c>
       <c r="Q23">
-        <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>-99.09</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="9"/>
-        <v>56.38</v>
+        <v>141.84</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="19"/>
-        <v>-56.38</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.7587605439099796</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
       </c>
       <c r="U23" t="e">
         <f ca="1">IF(J23, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D23)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V23" t="s">
         <v>2</v>
@@ -3567,43 +3661,47 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0227267217063019E-2</v>
+        <v>0.26695530565949654</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>amber</v>
+        <v>blue</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>49156</v>
+        <v>50909</v>
       </c>
       <c r="G24" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H24" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3618,54 +3716,54 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6.0000000006652989</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
-      </c>
-      <c r="P24" t="e">
+        <v>6.0000000001</v>
+      </c>
+      <c r="P24">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>87.56</v>
       </c>
       <c r="Q24">
-        <f t="shared" ca="1" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R24" t="e">
+        <f t="shared" ca="1" si="25"/>
+        <v>-87.56</v>
+      </c>
+      <c r="R24">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>79.67</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="U24" t="e">
         <f ca="1">IF(J24, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D24)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="V24" t="s">
         <v>2</v>
       </c>
       <c r="W24">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X24" t="str">
         <f ca="1">INDEX(tbl_text[text], W24)</f>
-        <v>na</v>
+        <v/>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W24)</f>
@@ -3675,42 +3773,46 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC24" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.55985709065737821</v>
+        <v>0.29053015063106735</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>green</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46394</v>
+        <v>41727</v>
       </c>
       <c r="G25" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="b">
@@ -3723,7 +3825,7 @@
       </c>
       <c r="J25" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>5.0999999999999996</v>
@@ -3734,108 +3836,112 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0000931611685822</v>
+        <v>4.0000000025766731</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="18"/>
-        <v>7.0000929999999997</v>
+        <v>4</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="7"/>
-        <v>103.01</v>
+        <v>88.96</v>
       </c>
       <c r="Q25">
-        <f t="shared" ca="1" si="24"/>
-        <v>103.01</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="9"/>
-        <v>172.54</v>
+        <v>85.47</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="19"/>
-        <v>172.54</v>
+        <v>-85.47</v>
       </c>
       <c r="T25">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.2393995931157873</v>
-      </c>
-      <c r="U25">
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.9368654589756225</v>
+      </c>
+      <c r="U25" t="e">
         <f ca="1">IF(J25, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D25)</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V25" t="s">
         <v>2</v>
       </c>
       <c r="W25">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X25" t="str">
         <f ca="1">INDEX(tbl_text[text], W25)</f>
-        <v>abc</v>
+        <v>.</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z25" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W25)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA25">
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB25" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>46394</v>
-      </c>
-      <c r="AC25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>46394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="14"/>
-        <v>5.2202259562967201E-2</v>
+        <v>0.35040624993685687</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>blue</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44304</v>
+        <v>45698</v>
       </c>
       <c r="G26" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H26" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3850,39 +3956,39 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3.0000000516594167</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
-      </c>
-      <c r="P26" t="e">
+        <v>3.0000000001</v>
+      </c>
+      <c r="P26">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" t="e">
+        <v>92.32</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ca="1" si="9"/>
+        <v>101.07</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ca="1" si="19"/>
+        <v>-101.07</v>
+      </c>
+      <c r="T26">
         <f t="shared" ca="1" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R26" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S26" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#N/A</v>
+        <v>-2.0088981147709397</v>
       </c>
       <c r="U26" t="e">
         <f ca="1">IF(J26, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D26)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V26" t="s">
         <v>2</v>
@@ -3915,43 +4021,47 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48985818226008526</v>
+        <v>1.6418896687076412E-2</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>amber</v>
+        <v>chartreuse</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44487</v>
+        <v>40903</v>
       </c>
       <c r="G27" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3966,34 +4076,34 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>6.000010993243956</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="18"/>
-        <v>6.0000109999999998</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
-      </c>
-      <c r="P27">
+        <v>1.0000000001</v>
+      </c>
+      <c r="P27" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>99.49</v>
+        <v>#N/A</v>
       </c>
       <c r="Q27">
-        <f t="shared" ca="1" si="24"/>
-        <v>-99.49</v>
-      </c>
-      <c r="R27">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R27" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>144.69</v>
+        <v>#N/A</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="U27" t="e">
@@ -4005,15 +4115,15 @@
       </c>
       <c r="W27">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" t="str">
         <f ca="1">INDEX(tbl_text[text], W27)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>abc</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z27" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W27)</f>
@@ -4031,39 +4141,43 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0690547153809153E-2</v>
+        <v>0.17609366334744114</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>teal</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>42165</v>
+        <v>42522</v>
       </c>
       <c r="G28" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
@@ -4082,62 +4196,62 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7.0000000000008544</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
-      </c>
-      <c r="P28" t="e">
+        <v>7.0000000001</v>
+      </c>
+      <c r="P28">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" t="e">
+        <v>81.39</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ca="1" si="9"/>
+        <v>58.54</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" ca="1" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R28" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T28" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="U28" t="e">
         <f ca="1">IF(J28, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D28)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="V28" t="s">
         <v>2</v>
       </c>
       <c r="W28">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X28" t="str">
         <f ca="1">INDEX(tbl_text[text], W28)</f>
-        <v>ab  cd</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z28" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W28)</f>
-        <v>ab cd</v>
+        <v>abc</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB28" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -4147,34 +4261,38 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60996805967336398</v>
+        <v>0.17940535075833675</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>vermillon</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>48262</v>
+        <v>44911</v>
       </c>
       <c r="G29" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="b">
@@ -4183,11 +4301,11 @@
       </c>
       <c r="I29" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>5.0999999999999996</v>
@@ -4198,54 +4316,54 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0003672091614559</v>
+        <v>2.000000000001152</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0003669999999998</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="7"/>
-        <v>105.58</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="Q29">
-        <f t="shared" ca="1" si="24"/>
-        <v>105.58</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="9"/>
-        <v>196.22</v>
+        <v>59.29</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="19"/>
-        <v>196.22</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" ca="1" si="23"/>
-        <v>2.2949509544652682</v>
-      </c>
-      <c r="U29">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="e">
         <f ca="1">IF(J29, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D29)</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
       <c r="V29" t="s">
         <v>2</v>
       </c>
       <c r="W29">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X29" t="str">
         <f ca="1">INDEX(tbl_text[text], W29)</f>
-        <v xml:space="preserve"> </v>
+        <v>_NA</v>
       </c>
       <c r="Y29">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z29" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W29)</f>
@@ -4255,47 +4373,51 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AB29" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>48262</v>
+        <v>#N/A</v>
       </c>
       <c r="AC29" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.12109778014300832</v>
+        <v>3.7627737928761507E-3</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>teal</v>
+        <v>red</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46927</v>
+        <v>47509</v>
       </c>
       <c r="G30" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H30" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
@@ -4314,62 +4436,62 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
-      </c>
-      <c r="P30">
+        <v>7.0000000001</v>
+      </c>
+      <c r="P30" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>76.61</v>
+        <v>#N/A</v>
       </c>
       <c r="Q30">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R30" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" t="e">
+        <f t="shared" ca="1" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T30" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>-76.61</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ca="1" si="9"/>
-        <v>46.08</v>
-      </c>
-      <c r="S30">
-        <f t="shared" ca="1" si="19"/>
-        <v>-46.08</v>
-      </c>
-      <c r="T30">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.6728364541713971</v>
+        <v>#N/A</v>
       </c>
       <c r="U30" t="e">
         <f ca="1">IF(J30, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D30)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V30" t="s">
         <v>2</v>
       </c>
       <c r="W30">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X30" t="str">
         <f ca="1">INDEX(tbl_text[text], W30)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>na</v>
       </c>
       <c r="Y30">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="Z30" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W30)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA30">
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB30" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -4379,43 +4501,47 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31492947920156489</v>
+        <v>2.403622760467794E-2</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>violet</v>
+        <v>orange</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46004</v>
+        <v>47620</v>
       </c>
       <c r="G31" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H31" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -4430,54 +4556,54 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0000000093629575</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
-      </c>
-      <c r="P31">
+        <v>9.0000000001</v>
+      </c>
+      <c r="P31" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>90.36</v>
-      </c>
-      <c r="Q31">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" t="e">
+        <f t="shared" ca="1" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" t="e">
+        <f t="shared" ca="1" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T31" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ca="1" si="9"/>
-        <v>91.66</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ca="1" si="19"/>
-        <v>-91.66</v>
-      </c>
-      <c r="T31">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.9668922958671364</v>
+        <v>#N/A</v>
       </c>
       <c r="U31" t="e">
         <f ca="1">IF(J31, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D31)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V31" t="s">
         <v>2</v>
       </c>
       <c r="W31">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>5</v>
-      </c>
-      <c r="X31" t="str">
+        <v>7</v>
+      </c>
+      <c r="X31" t="e">
         <f ca="1">INDEX(tbl_text[text], W31)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y31">
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Z31" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W31)</f>
@@ -4493,6 +4619,10 @@
       </c>
       <c r="AC31" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD31" s="1" t="e">
+        <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4504,11 +4634,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452EE6F-54F8-4031-B4EA-2C20778AAAFF}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4933,7 @@
         <v>is_rare</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ref="M8:M30" si="4">E8</f>
+        <f t="shared" ref="M8:M31" si="4">E8</f>
         <v>logical</v>
       </c>
     </row>
@@ -5555,6 +5685,38 @@
         <v>clean_date</v>
       </c>
       <c r="M30" t="str">
+        <f t="shared" si="4"/>
+        <v>POSIXct</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ref="F31" si="7">E31</f>
+        <v>POSIXct</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ref="L31" si="8">B31</f>
+        <v>end_date</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="4"/>
         <v>POSIXct</v>
       </c>

--- a/inst/extdata/preproc.xlsx
+++ b/inst/extdata/preproc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyR\Packages\flrpkgPreproc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E46A6F-CB76-4A9D-AF94-B397708843FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FCF5F8-932E-46CA-90E6-F2D00B5407A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5797C449-39AA-4F4E-B9E8-85AE9EADE789}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5797C449-39AA-4F4E-B9E8-85AE9EADE789}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1037,19 +1037,19 @@
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.62368367672337155</v>
+        <v>0.25859757796677496</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1, 9)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1, 12), "blue", "red", "yellow", "purple", "green", "orange", "amber", "vermillon", "magenta", "violet", "teal", "chartreuse")</f>
-        <v>yellow</v>
+        <v>chartreuse</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2010, 1, 1), DATE(2040, 12, 31))</f>
-        <v>42904</v>
+        <v>47943</v>
       </c>
       <c r="G2" s="1" t="b">
         <f t="shared" ref="G2" si="0">ROW() = 3</f>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="J2" s="1" t="b">
         <f t="shared" ref="J2:J31" ca="1" si="3">C2 &lt; 0.5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>5.0999999999999996</v>
@@ -1076,54 +1076,54 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M31" ca="1" si="5">D2 + POWER(C2, 16)</f>
-        <v>7.0005241191680501</v>
+        <v>9.0000000003999361</v>
       </c>
       <c r="N2">
         <f ca="1">ROUND(M2, 6)</f>
-        <v>7.0005240000000004</v>
+        <v>9</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O31" ca="1" si="6">D2 + POWER(10, -10)</f>
-        <v>7.0000000001</v>
+        <v>9.0000000001</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P31" ca="1" si="7">IF(H2, NA(), ROUND(_xlfn.NORM.INV(C2, 100, 20), 2))</f>
-        <v>106.3</v>
+        <v>87.05</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q3" ca="1" si="8">IF(J2, IF(RAND() &lt; 0.5, 0, -P2), P2)</f>
-        <v>106.3</v>
+        <v>-87.05</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R31" ca="1" si="9">IF(H2, NA(), ROUND(_xlfn.LOGNORM.INV(C2, 5, 1), 2))</f>
-        <v>203.4</v>
+        <v>77.66</v>
       </c>
       <c r="S2">
         <f ca="1">IF(J2, IF(RAND() &lt; 0.5, 0, -R2), R2)</f>
-        <v>203.4</v>
+        <v>-77.66</v>
       </c>
       <c r="T2">
         <f ca="1">SIGN(S2) *LOG10(ABS(S2) + 1)</f>
-        <v>2.3104808914626753</v>
-      </c>
-      <c r="U2">
+        <v>-1.8957539420737279</v>
+      </c>
+      <c r="U2" t="e">
         <f ca="1">IF(J2, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D2)</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="V2" t="s">
         <v>2</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>4</v>
-      </c>
-      <c r="X2" t="str">
+        <v>7</v>
+      </c>
+      <c r="X2" t="e">
         <f ca="1">INDEX(tbl_text[text], W2)</f>
-        <v/>
-      </c>
-      <c r="Y2">
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" t="e">
         <f ca="1">LEN(X2)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W2)</f>
@@ -1135,15 +1135,15 @@
       </c>
       <c r="AB2" s="5">
         <f t="shared" ref="AB2:AB31" ca="1" si="11">IF(J2, IF(RAND() &lt; 0.5, NA(), date_default), F2)</f>
-        <v>42904</v>
-      </c>
-      <c r="AC2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="5" t="e">
         <f t="shared" ref="AC2:AC31" ca="1" si="12">IF(AND(AB2 &gt;= date_start, AB2 &lt; date_end), AB2, NA())</f>
-        <v>42904</v>
+        <v>#N/A</v>
       </c>
       <c r="AD2" s="1">
         <f ca="1">AB2 + D2</f>
-        <v>42911</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1157,19 +1157,19 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C31" ca="1" si="14">RAND()</f>
-        <v>0.70341631684566475</v>
+        <v>9.7619783898401646E-3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="15">RANDBETWEEN(1, 9)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E31" ca="1" si="16">CHOOSE(RANDBETWEEN(1, 12), "blue", "red", "yellow", "purple", "green", "orange", "amber", "vermillon", "magenta", "violet", "teal", "chartreuse")</f>
-        <v>red</v>
+        <v>teal</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F31" ca="1" si="17">RANDBETWEEN(DATE(2010, 1, 1), DATE(2040, 12, 31))</f>
-        <v>51459</v>
+        <v>49175</v>
       </c>
       <c r="G3" s="1" t="b">
         <f>ROW() = 3</f>
@@ -1177,15 +1177,15 @@
       </c>
       <c r="H3" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>5.0999999999999996</v>
@@ -1196,39 +1196,39 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0035925184883312</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N31" ca="1" si="18">ROUND(M3, 6)</f>
-        <v>2.003593</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0000000001</v>
-      </c>
-      <c r="P3">
+        <v>5.0000000001</v>
+      </c>
+      <c r="P3" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>110.69</v>
+        <v>#N/A</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="8"/>
-        <v>110.69</v>
-      </c>
-      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>253.22</v>
-      </c>
-      <c r="S3">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" t="e">
         <f t="shared" ref="S3:S31" ca="1" si="19">IF(J3, IF(RAND() &lt; 0.5, 0, -R3), R3)</f>
-        <v>253.22</v>
-      </c>
-      <c r="T3">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" t="e">
         <f ca="1">SIGN(S3) *LOG10(ABS(S3) + 1)</f>
-        <v>2.4052097143846334</v>
-      </c>
-      <c r="U3">
+        <v>#N/A</v>
+      </c>
+      <c r="U3" t="e">
         <f ca="1">IF(J3, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D3)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="AB3" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>51459</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AD3" s="1">
         <f t="shared" ref="AD3:AD31" ca="1" si="21">AB3 + D3</f>
-        <v>51461</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25492341415998809</v>
+        <v>0.91774550472082606</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>yellow</v>
+        <v>blue</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44049</v>
+        <v>48460</v>
       </c>
       <c r="G4" s="1" t="b">
         <f t="shared" ref="G4:G31" si="23">ROW() = 3</f>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J4" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>5.0999999999999996</v>
@@ -1316,54 +1316,54 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>5.000000000318094</v>
+        <v>4.2532539658103783</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>4.2532540000000001</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="7"/>
-        <v>86.82</v>
+        <v>127.8</v>
       </c>
       <c r="Q4">
         <f ca="1">IF(J4, IF(RAND() &lt; 0.5, 0, -P4), P4)</f>
-        <v>-86.82</v>
+        <v>127.8</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="9"/>
-        <v>76.78</v>
+        <v>595.9</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>595.9</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T31" ca="1" si="24">SIGN(S4) *LOG10(ABS(S4) + 1)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" t="e">
+        <v>2.7759015788916743</v>
+      </c>
+      <c r="U4">
         <f ca="1">IF(J4, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D4)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="V4" t="s">
         <v>2</v>
       </c>
       <c r="W4">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>7</v>
-      </c>
-      <c r="X4" t="e">
+        <v>9</v>
+      </c>
+      <c r="X4" t="str">
         <f ca="1">INDEX(tbl_text[text], W4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" t="e">
+        <v>N \ A</v>
+      </c>
+      <c r="Y4">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W4)</f>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>48460</v>
       </c>
       <c r="AC4" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>48464</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1397,19 +1397,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.95522738245815741</v>
+        <v>7.3998020632821349E-2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>amber</v>
+        <v>yellow</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>43123</v>
+        <v>47511</v>
       </c>
       <c r="G5" s="1" t="b">
         <f t="shared" si="23"/>
@@ -1417,15 +1417,15 @@
       </c>
       <c r="H5" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>5.0999999999999996</v>
@@ -1436,50 +1436,50 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4805163998110284</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="18"/>
-        <v>9.4805159999999997</v>
+        <v>4</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
-      </c>
-      <c r="P5">
+        <v>4.0000000001</v>
+      </c>
+      <c r="P5" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>133.96</v>
+        <v>#N/A</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q31" ca="1" si="25">IF(J5, IF(RAND() &lt; 0.5, 0, -P5), P5)</f>
-        <v>133.96</v>
-      </c>
-      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>810.62</v>
+        <v>#N/A</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="19"/>
-        <v>810.62</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="24"/>
-        <v>2.9093527404098767</v>
-      </c>
-      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="e">
         <f ca="1">IF(J5, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D5)</f>
-        <v>9</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
       </c>
       <c r="W5">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X5" t="str">
         <f ca="1">INDEX(tbl_text[text], W5)</f>
-        <v>_NA</v>
+        <v>N/A</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="20"/>
@@ -1495,15 +1495,15 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>43123</v>
-      </c>
-      <c r="AC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>43123</v>
+        <v>#N/A</v>
       </c>
       <c r="AD5" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>43132</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1517,19 +1517,19 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41510484905525646</v>
+        <v>0.28564476696343577</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>orange</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44189</v>
+        <v>48009</v>
       </c>
       <c r="G6" s="1" t="b">
         <f t="shared" si="23"/>
@@ -1556,35 +1556,35 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000007771858881</v>
+        <v>3.0000000019643567</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0000010000000001</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="7"/>
-        <v>95.71</v>
+        <v>88.68</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="25"/>
-        <v>-95.71</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="9"/>
-        <v>119.77</v>
+        <v>84.25</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-84.25</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1.9306943876645353</v>
       </c>
       <c r="U6" t="e">
         <f ca="1">IF(J6, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D6)</f>
@@ -1595,15 +1595,15 @@
       </c>
       <c r="W6">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X6" t="str">
         <f ca="1">INDEX(tbl_text[text], W6)</f>
-        <v>N/A</v>
+        <v>.</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W6)</f>
@@ -1613,17 +1613,17 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC6" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="1" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1637,19 +1637,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.24451681431716699</v>
+        <v>0.88339096860660082</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>yellow</v>
+        <v>blue</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50865</v>
+        <v>47158</v>
       </c>
       <c r="G7" s="1" t="b">
         <f t="shared" si="23"/>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="I7" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>5.0999999999999996</v>
@@ -1676,74 +1676,74 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000001632827</v>
+        <v>4.1375457825756392</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>4.1375460000000004</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="7"/>
-        <v>86.16</v>
+        <v>123.84</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="25"/>
-        <v>-86.16</v>
+        <v>123.84</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="9"/>
-        <v>74.3</v>
+        <v>488.88</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="19"/>
-        <v>-74.3</v>
+        <v>488.88</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.8767949762007006</v>
-      </c>
-      <c r="U7" t="e">
+        <v>2.6900897091706759</v>
+      </c>
+      <c r="U7">
         <f ca="1">IF(J7, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D7)</f>
-        <v>#REF!</v>
+        <v>4</v>
       </c>
       <c r="V7" t="s">
         <v>2</v>
       </c>
       <c r="W7">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>7</v>
-      </c>
-      <c r="X7" t="e">
+        <v>1</v>
+      </c>
+      <c r="X7" t="str">
         <f ca="1">INDEX(tbl_text[text], W7)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>abc</v>
+      </c>
+      <c r="Y7">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W7)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA7">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC7" s="5" t="e">
+        <v>47158</v>
+      </c>
+      <c r="AC7" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>47158</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>47162</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26697690927233686</v>
+        <v>0.49174609687059867</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>51395</v>
+        <v>43837</v>
       </c>
       <c r="G8" s="1" t="b">
         <f t="shared" si="23"/>
@@ -1796,19 +1796,19 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000000006661613</v>
+        <v>7.0000116910830004</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>7.0000119999999999</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000001</v>
+        <v>7.0000000001</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="7"/>
-        <v>87.56</v>
+        <v>99.59</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="25"/>
@@ -1816,42 +1816,42 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="9"/>
-        <v>79.680000000000007</v>
+        <v>145.37</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="19"/>
-        <v>-79.680000000000007</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.9067658895407278</v>
+        <v>0</v>
       </c>
       <c r="U8" t="e">
         <f ca="1">IF(J8, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D8)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V8" t="s">
         <v>2</v>
       </c>
       <c r="W8">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8" t="str">
         <f ca="1">INDEX(tbl_text[text], W8)</f>
-        <v>ab  cd</v>
+        <v/>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="Z8" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W8)</f>
-        <v>ab cd</v>
-      </c>
-      <c r="AA8">
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1877,19 +1877,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.52555804024309716</v>
+        <v>0.11980323882126054</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>orange</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>48606</v>
+        <v>47122</v>
       </c>
       <c r="G9" s="1" t="b">
         <f t="shared" si="23"/>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="I9" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>5.0999999999999996</v>
@@ -1916,54 +1916,54 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>5.000033879028825</v>
+        <v>2.0000000000000018</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0000340000000003</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="7"/>
-        <v>101.28</v>
+        <v>76.48</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="25"/>
-        <v>101.28</v>
+        <v>-76.48</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="9"/>
-        <v>158.24</v>
+        <v>45.79</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="19"/>
-        <v>158.24</v>
+        <v>-45.79</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="24"/>
-        <v>2.2020521689120605</v>
-      </c>
-      <c r="U9">
+        <v>-1.6701530451921802</v>
+      </c>
+      <c r="U9" t="e">
         <f ca="1">IF(J9, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D9)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X9" t="str">
         <f ca="1">INDEX(tbl_text[text], W9)</f>
-        <v xml:space="preserve"> </v>
+        <v>na</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W9)</f>
@@ -1973,17 +1973,17 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>48606</v>
+        <v>#N/A</v>
       </c>
       <c r="AC9" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="1" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>48611</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1997,11 +1997,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.42240216263573438</v>
+        <v>0.19956630491319372</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>41681</v>
+        <v>41092</v>
       </c>
       <c r="G10" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="I10" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -2036,62 +2036,62 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000010271127699</v>
+        <v>8.0000000000063292</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0000010000000001</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="7"/>
-        <v>96.08</v>
+        <v>83.14</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="25"/>
-        <v>-96.08</v>
+        <v>-83.14</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="9"/>
-        <v>122.03</v>
+        <v>63.87</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="19"/>
-        <v>-122.03</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.090011024007147</v>
+        <v>0</v>
       </c>
       <c r="U10" t="e">
         <f ca="1">IF(J10, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D10)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
       </c>
       <c r="W10">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
-      </c>
-      <c r="X10" t="str">
+        <v>7</v>
+      </c>
+      <c r="X10" t="e">
         <f ca="1">INDEX(tbl_text[text], W10)</f>
-        <v>abc</v>
-      </c>
-      <c r="Y10">
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W10)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA10">
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AD10" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2117,19 +2117,19 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.46552711564277161</v>
+        <v>0.50111352563892941</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>purple</v>
+        <v>red</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>48404</v>
+        <v>50036</v>
       </c>
       <c r="G11" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="J11" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>5.0999999999999996</v>
@@ -2156,74 +2156,74 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0000048654130955</v>
+        <v>4.0000158116794111</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="18"/>
-        <v>7.0000049999999998</v>
+        <v>4.0000159999999996</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="7"/>
-        <v>98.27</v>
+        <v>100.06</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>100.06</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="9"/>
-        <v>136.11000000000001</v>
+        <v>148.83000000000001</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="19"/>
-        <v>-136.11000000000001</v>
+        <v>148.83000000000001</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.1370691308394085</v>
-      </c>
-      <c r="U11" t="e">
+        <v>2.1755987795183764</v>
+      </c>
+      <c r="U11">
         <f ca="1">IF(J11, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D11)</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="V11" t="s">
         <v>2</v>
       </c>
       <c r="W11">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X11" t="str">
         <f ca="1">INDEX(tbl_text[text], W11)</f>
-        <v>abc</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W11)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA11">
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AB11" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>50036</v>
       </c>
       <c r="AC11" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD11" s="1" t="e">
+      <c r="AD11" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
+        <v>50040</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49880472493954053</v>
+        <v>0.1440362515177942</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="15"/>
@@ -2245,11 +2245,11 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>yellow</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50294</v>
+        <v>44391</v>
       </c>
       <c r="G12" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="I12" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0000146855068115</v>
+        <v>1.0000000000000344</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0000150000000001</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="7"/>
-        <v>99.94</v>
+        <v>78.75</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="25"/>
@@ -2296,19 +2296,19 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="9"/>
-        <v>147.97</v>
+        <v>51.3</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-51.3</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1.7185016888672742</v>
       </c>
       <c r="U12" t="e">
         <f ca="1">IF(J12, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D12)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V12" t="s">
         <v>2</v>
@@ -2333,17 +2333,17 @@
         <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC12" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="1" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.17050145198083122</v>
+        <v>0.34549284327854135</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>vermillon</v>
+        <v>blue</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46702</v>
+        <v>47387</v>
       </c>
       <c r="G13" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="I13" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -2396,19 +2396,19 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000000005103</v>
+        <v>4.0000000412121137</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="7"/>
-        <v>80.959999999999994</v>
+        <v>92.05</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="25"/>
@@ -2416,34 +2416,34 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="9"/>
-        <v>57.27</v>
+        <v>99.73</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-99.73</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-2.0031588339508621</v>
       </c>
       <c r="U13" t="e">
         <f ca="1">IF(J13, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D13)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="V13" t="s">
         <v>2</v>
       </c>
       <c r="W13">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X13" t="str">
         <f ca="1">INDEX(tbl_text[text], W13)</f>
-        <v>N \ A</v>
+        <v/>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W13)</f>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2477,19 +2477,19 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.99015164024457125</v>
+        <v>0.81842385950539231</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>vermillon</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40843</v>
+        <v>41314</v>
       </c>
       <c r="G14" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2516,74 +2516,74 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8535468813497111</v>
+        <v>9.0405184207548697</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="18"/>
-        <v>8.8535470000000007</v>
+        <v>9.0405180000000005</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>9.0000000001</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="7"/>
-        <v>146.63999999999999</v>
+        <v>118.19</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="25"/>
-        <v>146.63999999999999</v>
+        <v>118.19</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="9"/>
-        <v>1528.55</v>
+        <v>368.48</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="19"/>
-        <v>1528.55</v>
+        <v>368.48</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="24"/>
-        <v>3.1845636783584035</v>
+        <v>2.567590934950823</v>
       </c>
       <c r="U14">
         <f ca="1">IF(J14, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
       </c>
       <c r="W14">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X14" t="str">
         <f ca="1">INDEX(tbl_text[text], W14)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>na</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="Z14" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W14)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA14">
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB14" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>40843</v>
+        <v>41314</v>
       </c>
       <c r="AC14" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>40843</v>
+        <v>41314</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>40851</v>
+        <v>41323</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -2597,19 +2597,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71847349843824648</v>
+        <v>0.45585159126851316</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>magenta</v>
+        <v>purple</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50015</v>
+        <v>40471</v>
       </c>
       <c r="G15" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="J15" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>5.0999999999999996</v>
@@ -2636,66 +2636,66 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>9.005041642589541</v>
+        <v>1.0000034767671253</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0050419999999995</v>
+        <v>1.000003</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
+        <v>1.0000000001</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="7"/>
-        <v>111.57</v>
+        <v>97.78</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="25"/>
-        <v>111.57</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="9"/>
-        <v>264.62</v>
+        <v>132.84</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="19"/>
-        <v>264.62</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="24"/>
-        <v>2.4242607723624916</v>
-      </c>
-      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="e">
         <f ca="1">IF(J15, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D15)</f>
-        <v>9</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V15" t="s">
         <v>2</v>
       </c>
       <c r="W15">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15" t="str">
         <f ca="1">INDEX(tbl_text[text], W15)</f>
-        <v>abc</v>
+        <v>ab  cd</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W15)</f>
-        <v>abc</v>
+        <v>ab cd</v>
       </c>
       <c r="AA15">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>50015</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>50024</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.1407242006711692</v>
+        <v>0.12796966521496278</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>amber</v>
+        <v>purple</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>49620</v>
+        <v>49898</v>
       </c>
       <c r="G16" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2756,27 +2756,27 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>4.000000000000024</v>
+        <v>2.0000000000000053</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="7"/>
-        <v>78.459999999999994</v>
+        <v>77.28</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>-77.28</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="9"/>
-        <v>50.55</v>
+        <v>47.65</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="19"/>
@@ -2788,22 +2788,22 @@
       </c>
       <c r="U16" t="e">
         <f ca="1">IF(J16, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D16)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V16" t="s">
         <v>2</v>
       </c>
       <c r="W16">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X16" t="str">
         <f ca="1">INDEX(tbl_text[text], W16)</f>
-        <v>na</v>
+        <v/>
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W16)</f>
@@ -2813,17 +2813,17 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC16" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="1" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2837,19 +2837,19 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.12531102985899323</v>
+        <v>0.3193463531480385</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>orange</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47386</v>
+        <v>45231</v>
       </c>
       <c r="G17" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="I17" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -2876,74 +2876,74 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000000000036</v>
+        <v>2.0000000117001484</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="7"/>
-        <v>77.02</v>
+        <v>90.61</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="25"/>
-        <v>-77.02</v>
+        <v>-90.61</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="9"/>
-        <v>47.05</v>
+        <v>92.8</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="19"/>
-        <v>-47.05</v>
+        <v>-92.8</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.6816933920045642</v>
+        <v>-1.9722028383790644</v>
       </c>
       <c r="U17" t="e">
         <f ca="1">IF(J17, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D17)</f>
-        <v>#NUM!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V17" t="s">
         <v>2</v>
       </c>
       <c r="W17">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X17" t="str">
         <f ca="1">INDEX(tbl_text[text], W17)</f>
-        <v>na</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="Z17" t="e">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W17)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA17">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="AC17" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="1" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -2957,19 +2957,19 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.27866392649211402</v>
+        <v>0.7163947446463399</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>violet</v>
+        <v>purple</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>46571</v>
+        <v>47975</v>
       </c>
       <c r="G18" s="1" t="b">
         <f t="shared" si="23"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="J18" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>5.0999999999999996</v>
@@ -2996,66 +2996,66 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000013221846</v>
+        <v>2.0048132482368857</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>2.004813</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="7"/>
-        <v>88.26</v>
+        <v>111.44</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>111.44</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="9"/>
-        <v>82.53</v>
+        <v>263</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U18" t="e">
+        <v>2.4216039268698313</v>
+      </c>
+      <c r="U18">
         <f ca="1">IF(J18, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D18)</f>
-        <v>#NUM!</v>
+        <v>2</v>
       </c>
       <c r="V18" t="s">
         <v>2</v>
       </c>
       <c r="W18">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X18" t="str">
         <f ca="1">INDEX(tbl_text[text], W18)</f>
-        <v>N/A</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="Z18" t="str">
+        <f ca="1">INDEX(tbl_text[clean_text], W18)</f>
+        <v>abc</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
-      </c>
-      <c r="Z18" t="e">
-        <f ca="1">INDEX(tbl_text[clean_text], W18)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
       </c>
       <c r="AB18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>47975</v>
       </c>
       <c r="AC18" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>47977</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3077,19 +3077,19 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.16034020377926195</v>
+        <v>0.59037110456698061</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>purple</v>
+        <v>vermillon</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44048</v>
+        <v>42727</v>
       </c>
       <c r="G19" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="I19" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>5.0999999999999996</v>
@@ -3116,74 +3116,74 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.000000000000191</v>
+        <v>4.0002177717233591</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>4.0002180000000003</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="7"/>
-        <v>80.14</v>
+        <v>104.57</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>104.57</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="9"/>
-        <v>54.98</v>
+        <v>186.51</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="19"/>
-        <v>-54.98</v>
+        <v>186.51</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.7480328941301435</v>
-      </c>
-      <c r="U19" t="e">
+        <v>2.2730244338184646</v>
+      </c>
+      <c r="U19">
         <f ca="1">IF(J19, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D19)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="V19" t="s">
         <v>2</v>
       </c>
       <c r="W19">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X19" t="str">
         <f ca="1">INDEX(tbl_text[text], W19)</f>
-        <v/>
+        <v>ab  cd</v>
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" t="e">
+        <v>6</v>
+      </c>
+      <c r="Z19" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
+        <v>ab cd</v>
+      </c>
+      <c r="AA19">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" s="5" t="e">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" s="5" t="e">
+        <v>42727</v>
+      </c>
+      <c r="AC19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" s="1" t="e">
+        <v>42727</v>
+      </c>
+      <c r="AD19" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
+        <v>42731</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3197,19 +3197,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33009602127080018</v>
+        <v>0.25354965825734643</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>teal</v>
+        <v>chartreuse</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47561</v>
+        <v>49230</v>
       </c>
       <c r="G20" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3236,39 +3236,39 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0000000198721395</v>
+        <v>5.000000000291748</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>5.0000000001</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="7"/>
-        <v>91.21</v>
+        <v>86.73</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="25"/>
-        <v>-91.21</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="9"/>
-        <v>95.62</v>
+        <v>76.45</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-76.45</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1.8890214220952248</v>
       </c>
       <c r="U20" t="e">
         <f ca="1">IF(J20, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D20)</f>
-        <v>#NUM!</v>
+        <v>#REF!</v>
       </c>
       <c r="V20" t="s">
         <v>2</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3317,19 +3317,19 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="14"/>
-        <v>6.4342068063643287E-2</v>
+        <v>4.3380501630369772E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>chartreuse</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47749</v>
+        <v>43994</v>
       </c>
       <c r="G21" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3356,62 +3356,62 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0000000001</v>
+        <v>4.0000000001</v>
       </c>
       <c r="P21" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R21" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
+        <v>#N/A</v>
+      </c>
+      <c r="T21" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="U21" t="e">
         <f ca="1">IF(J21, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D21)</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V21" t="s">
         <v>2</v>
       </c>
       <c r="W21">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X21" t="str">
         <f ca="1">INDEX(tbl_text[text], W21)</f>
-        <v>.</v>
+        <v xml:space="preserve"> abc</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Z21" t="e">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W21)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA21">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="5" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -3437,19 +3437,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.75628499480905631</v>
+        <v>0.58357375480937224</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>vermillon</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>43057</v>
+        <v>42922</v>
       </c>
       <c r="G22" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3476,54 +3476,54 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0114542785615761</v>
+        <v>3.000180938936202</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0114539999999996</v>
+        <v>3.000181</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="7"/>
-        <v>113.89</v>
+        <v>104.22</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="25"/>
-        <v>113.89</v>
+        <v>104.22</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="9"/>
-        <v>297.2</v>
+        <v>183.29</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="19"/>
-        <v>297.2</v>
+        <v>183.29</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="24"/>
-        <v>2.4745076391169758</v>
+        <v>2.2655017700392257</v>
       </c>
       <c r="U22">
         <f ca="1">IF(J22, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D22)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
       </c>
       <c r="W22">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X22" t="str">
         <f ca="1">INDEX(tbl_text[text], W22)</f>
-        <v>_NA</v>
+        <v>.</v>
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W22)</f>
@@ -3535,15 +3535,15 @@
       </c>
       <c r="AB22" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>43057</v>
+        <v>42922</v>
       </c>
       <c r="AC22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>43057</v>
+        <v>42922</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>43062</v>
+        <v>42925</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -3557,19 +3557,19 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48193632536082498</v>
+        <v>0.1786283706286329</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>chartreuse</v>
+        <v>red</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>41559</v>
+        <v>50806</v>
       </c>
       <c r="G23" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="I23" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3596,35 +3596,35 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0000084690479394</v>
+        <v>3.0000000000010747</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="18"/>
-        <v>4.0000080000000002</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="7"/>
-        <v>99.09</v>
+        <v>81.59</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="25"/>
-        <v>-99.09</v>
+        <v>-81.59</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="9"/>
-        <v>141.84</v>
+        <v>59.11</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-59.11</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1.7789467279686166</v>
       </c>
       <c r="U23" t="e">
         <f ca="1">IF(J23, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D23)</f>
@@ -3635,15 +3635,15 @@
       </c>
       <c r="W23">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X23" t="str">
         <f ca="1">INDEX(tbl_text[text], W23)</f>
-        <v>.</v>
+        <v>N \ A</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W23)</f>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26695530565949654</v>
+        <v>0.12356888064143479</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="15"/>
@@ -3685,11 +3685,11 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>teal</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>50909</v>
+        <v>44236</v>
       </c>
       <c r="G24" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="I24" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0000000006652989</v>
+        <v>6.0000000000000027</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="18"/>
@@ -3728,15 +3728,15 @@
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="7"/>
-        <v>87.56</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="25"/>
-        <v>-87.56</v>
+        <v>-76.849999999999994</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="9"/>
-        <v>79.67</v>
+        <v>46.65</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="19"/>
@@ -3748,22 +3748,22 @@
       </c>
       <c r="U24" t="e">
         <f ca="1">IF(J24, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D24)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V24" t="s">
         <v>2</v>
       </c>
       <c r="W24">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X24" t="str">
         <f ca="1">INDEX(tbl_text[text], W24)</f>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W24)</f>
@@ -3797,19 +3797,19 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29053015063106735</v>
+        <v>0.69973835138542739</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>green</v>
+        <v>purple</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>41727</v>
+        <v>47030</v>
       </c>
       <c r="G25" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="J25" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>5.0999999999999996</v>
@@ -3836,39 +3836,39 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0000000025766731</v>
+        <v>3.0033034735910018</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>3.0033029999999998</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="7"/>
-        <v>88.96</v>
+        <v>110.47</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>110.47</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="9"/>
-        <v>85.47</v>
+        <v>250.55</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="19"/>
-        <v>-85.47</v>
+        <v>250.55</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.9368654589756225</v>
-      </c>
-      <c r="U25" t="e">
+        <v>2.4006243216617671</v>
+      </c>
+      <c r="U25">
         <f ca="1">IF(J25, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D25)</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="V25" t="s">
         <v>2</v>
@@ -3895,15 +3895,15 @@
       </c>
       <c r="AB25" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC25" s="5" t="e">
+        <v>47030</v>
+      </c>
+      <c r="AC25" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>47030</v>
       </c>
       <c r="AD25" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>47033</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -3917,19 +3917,19 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35040624993685687</v>
+        <v>0.98285615964326956</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>blue</v>
+        <v>purple</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45698</v>
+        <v>43684</v>
       </c>
       <c r="G26" s="1" t="b">
         <f t="shared" si="23"/>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="J26" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>5.0999999999999996</v>
@@ -3956,74 +3956,74 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0000000516594167</v>
+        <v>2.7582971440193491</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>2.7582970000000002</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0000000001</v>
+        <v>2.0000000001</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="7"/>
-        <v>92.32</v>
+        <v>142.33000000000001</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>142.33000000000001</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="9"/>
-        <v>101.07</v>
+        <v>1232.3399999999999</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="19"/>
-        <v>-101.07</v>
+        <v>1232.3399999999999</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.0088981147709397</v>
-      </c>
-      <c r="U26" t="e">
+        <v>3.0910828168787279</v>
+      </c>
+      <c r="U26">
         <f ca="1">IF(J26, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D26)</f>
-        <v>#NUM!</v>
+        <v>2</v>
       </c>
       <c r="V26" t="s">
         <v>2</v>
       </c>
       <c r="W26">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X26" t="str">
         <f ca="1">INDEX(tbl_text[text], W26)</f>
-        <v>N/A</v>
+        <v>abc</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
-      <c r="Z26" t="e">
+      <c r="Z26" t="str">
         <f ca="1">INDEX(tbl_text[clean_text], W26)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" t="e">
+        <v>abc</v>
+      </c>
+      <c r="AA26">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="AB26" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC26" s="5" t="e">
+        <v>43684</v>
+      </c>
+      <c r="AC26" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>43684</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="14"/>
-        <v>1.6418896687076412E-2</v>
+        <v>0.57351345883309823</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>40903</v>
+        <v>45233</v>
       </c>
       <c r="G27" s="1" t="b">
         <f t="shared" si="23"/>
@@ -4057,15 +4057,15 @@
       </c>
       <c r="H27" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>5.0999999999999996</v>
@@ -4076,74 +4076,74 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5.000136992826226</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>5.0001369999999996</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0000000001</v>
-      </c>
-      <c r="P27" t="e">
+        <v>5.0000000001</v>
+      </c>
+      <c r="P27">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>103.71</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R27" t="e">
+        <v>103.71</v>
+      </c>
+      <c r="R27">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>178.63</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>178.63</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U27" t="e">
+        <v>2.254378869894893</v>
+      </c>
+      <c r="U27">
         <f ca="1">IF(J27, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D27)</f>
-        <v>#NUM!</v>
+        <v>5</v>
       </c>
       <c r="V27" t="s">
         <v>2</v>
       </c>
       <c r="W27">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X27" t="str">
         <f ca="1">INDEX(tbl_text[text], W27)</f>
-        <v>abc</v>
+        <v>_NA</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
-      <c r="Z27" t="str">
+      <c r="Z27" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W27)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA27">
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC27" s="5" t="e">
+        <v>45233</v>
+      </c>
+      <c r="AC27" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>45233</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4157,19 +4157,19 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.17609366334744114</v>
+        <v>0.12595027702629713</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>teal</v>
+        <v>magenta</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>42522</v>
+        <v>42123</v>
       </c>
       <c r="G28" s="1" t="b">
         <f t="shared" si="23"/>
@@ -4196,19 +4196,19 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0000000000008544</v>
+        <v>3.000000000000004</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000001</v>
+        <v>3.0000000001</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="7"/>
-        <v>81.39</v>
+        <v>77.09</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="25"/>
@@ -4216,54 +4216,54 @@
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="9"/>
-        <v>58.54</v>
+        <v>47.19</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-47.19</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1.6829569263012085</v>
       </c>
       <c r="U28" t="e">
         <f ca="1">IF(J28, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D28)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="V28" t="s">
         <v>2</v>
       </c>
       <c r="W28">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X28" t="str">
         <f ca="1">INDEX(tbl_text[text], W28)</f>
-        <v xml:space="preserve"> abc</v>
+        <v>.</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="Z28" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W28)</f>
-        <v>abc</v>
-      </c>
-      <c r="AA28">
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AB28" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="5" t="e">
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AD28" s="1" t="e">
+      <c r="AD28" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -4277,19 +4277,19 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.17940535075833675</v>
+        <v>0.38790634324462225</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>vermillon</v>
+        <v>magenta</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>44911</v>
+        <v>44171</v>
       </c>
       <c r="G29" s="1" t="b">
         <f t="shared" si="23"/>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="I29" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -4316,54 +4316,54 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>2.000000000001152</v>
+        <v>8.0000002628028692</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0000000001</v>
+        <v>8.0000000001</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="7"/>
-        <v>81.650000000000006</v>
+        <v>94.3</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>-94.3</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="9"/>
-        <v>59.29</v>
+        <v>111.63</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-111.63</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-2.0516540841132862</v>
       </c>
       <c r="U29" t="e">
         <f ca="1">IF(J29, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D29)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V29" t="s">
         <v>2</v>
       </c>
       <c r="W29">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X29" t="str">
         <f ca="1">INDEX(tbl_text[text], W29)</f>
-        <v>_NA</v>
+        <v>na</v>
       </c>
       <c r="Y29">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W29)</f>
@@ -4397,19 +4397,19 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="14"/>
-        <v>3.7627737928761507E-3</v>
+        <v>0.16964243641315335</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>red</v>
+        <v>teal</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47509</v>
+        <v>51211</v>
       </c>
       <c r="G30" s="1" t="b">
         <f t="shared" si="23"/>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H30" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
@@ -4436,54 +4436,54 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9.0000000000004707</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000001</v>
-      </c>
-      <c r="P30" t="e">
+        <v>9.0000000001</v>
+      </c>
+      <c r="P30">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>80.89</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R30" t="e">
+        <v>-80.89</v>
+      </c>
+      <c r="R30">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" t="e">
+        <v>57.08</v>
+      </c>
+      <c r="S30">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T30" t="e">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" ca="1" si="24"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="U30" t="e">
         <f ca="1">IF(J30, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D30)</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V30" t="s">
         <v>2</v>
       </c>
       <c r="W30">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X30" t="str">
         <f ca="1">INDEX(tbl_text[text], W30)</f>
-        <v>na</v>
+        <v>N \ A</v>
       </c>
       <c r="Y30">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W30)</f>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -4517,19 +4517,19 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="14"/>
-        <v>2.403622760467794E-2</v>
+        <v>0.30210189989724767</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>orange</v>
+        <v>purple</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>47620</v>
+        <v>42346</v>
       </c>
       <c r="G31" s="1" t="b">
         <f t="shared" si="23"/>
@@ -4537,11 +4537,11 @@
       </c>
       <c r="H31" s="1" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="b">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="b">
         <f t="shared" ca="1" si="3"/>
@@ -4556,54 +4556,54 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7.0000000048134368</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0000000001</v>
-      </c>
-      <c r="P31" t="e">
+        <v>7.0000000001</v>
+      </c>
+      <c r="P31">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" t="e">
+        <v>89.63</v>
+      </c>
+      <c r="Q31">
         <f t="shared" ca="1" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R31" t="e">
+        <v>-89.63</v>
+      </c>
+      <c r="R31">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S31" t="e">
+        <v>88.38</v>
+      </c>
+      <c r="S31">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T31" t="e">
+        <v>-88.38</v>
+      </c>
+      <c r="T31">
         <f t="shared" ca="1" si="24"/>
-        <v>#N/A</v>
+        <v>-1.9512403503243403</v>
       </c>
       <c r="U31" t="e">
         <f ca="1">IF(J31, INDEX(tbl_err[err_nm], RANDBETWEEN(1, COUNTA(tbl_err[err_nm]))), D31)</f>
-        <v>#NUM!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V31" t="s">
         <v>2</v>
       </c>
       <c r="W31">
         <f ca="1">RANDBETWEEN(1, COUNTA(tbl_text[text]))</f>
-        <v>7</v>
-      </c>
-      <c r="X31" t="e">
+        <v>11</v>
+      </c>
+      <c r="X31" t="str">
         <f ca="1">INDEX(tbl_text[text], W31)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" t="e">
+        <v>na</v>
+      </c>
+      <c r="Y31">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="e">
         <f ca="1">INDEX(tbl_text[clean_text], W31)</f>
@@ -4636,9 +4636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452EE6F-54F8-4031-B4EA-2C20778AAAFF}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5953,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770DDC72-8720-462A-B9D1-D3BABD79A7A0}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
